--- a/data/trans_orig/P36B10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>16535</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9369</v>
+        <v>9773</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25664</v>
+        <v>26418</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0335711814933031</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01902140356682966</v>
+        <v>0.01984263170769772</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05210665693552159</v>
+        <v>0.05363767817905435</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -764,19 +764,19 @@
         <v>20147</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13137</v>
+        <v>12972</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30083</v>
+        <v>30824</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04319361265477089</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02816593602635804</v>
+        <v>0.02781161144442462</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06449703125625986</v>
+        <v>0.06608545501906715</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -785,19 +785,19 @@
         <v>36682</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26210</v>
+        <v>26749</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48893</v>
+        <v>49573</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03825143825647694</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02733214378040388</v>
+        <v>0.02789391069405866</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05098554325819759</v>
+        <v>0.05169424799995539</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>35442</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25581</v>
+        <v>25400</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48000</v>
+        <v>49098</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07195857980280768</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0519373742089465</v>
+        <v>0.05156987134473755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09745540342733018</v>
+        <v>0.09968529072043027</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>74</v>
@@ -835,19 +835,19 @@
         <v>74567</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59589</v>
+        <v>59659</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>91239</v>
+        <v>90981</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1598681462880807</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1277568241047017</v>
+        <v>0.1279057496985686</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1956113279309168</v>
+        <v>0.195058180792313</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>109</v>
@@ -856,19 +856,19 @@
         <v>110009</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>90930</v>
+        <v>91137</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>130602</v>
+        <v>130154</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1147169364162542</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09482162471732536</v>
+        <v>0.09503710166058851</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1361906934311248</v>
+        <v>0.135723610858068</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>132990</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>114334</v>
+        <v>113616</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>150965</v>
+        <v>152119</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2700132390992828</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2321342158660402</v>
+        <v>0.2306781240523799</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.306508274303815</v>
+        <v>0.3088515977649104</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>158</v>
@@ -906,19 +906,19 @@
         <v>155219</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>136147</v>
+        <v>133165</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>177347</v>
+        <v>173573</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.332782028685118</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2918912380502086</v>
+        <v>0.2854982662826651</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3802239727886255</v>
+        <v>0.3721308307945498</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>293</v>
@@ -927,19 +927,19 @@
         <v>288209</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>260919</v>
+        <v>261601</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>316369</v>
+        <v>317033</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3005433667817478</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2720847949353297</v>
+        <v>0.2727961582816118</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3299079750448771</v>
+        <v>0.3306009026198094</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>165650</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>143985</v>
+        <v>147157</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>186179</v>
+        <v>188809</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3363242757413985</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2923362865637812</v>
+        <v>0.2987768087937687</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3780032519425381</v>
+        <v>0.3833433888843752</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>147</v>
@@ -977,19 +977,19 @@
         <v>136115</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>117979</v>
+        <v>119614</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>156333</v>
+        <v>157602</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.291823566682416</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2529402421853201</v>
+        <v>0.2564465064492806</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3351706408211823</v>
+        <v>0.337890291841983</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>310</v>
@@ -998,19 +998,19 @@
         <v>301765</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>273039</v>
+        <v>273866</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>332083</v>
+        <v>332159</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.314679564436697</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2847237278307854</v>
+        <v>0.2855862442259169</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3462941125050965</v>
+        <v>0.3463742411003811</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>141915</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>124343</v>
+        <v>121936</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>163807</v>
+        <v>162004</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2881327238632079</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.252457690880531</v>
+        <v>0.2475706590997352</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3325816031827562</v>
+        <v>0.3289202908220047</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>87</v>
@@ -1048,19 +1048,19 @@
         <v>80381</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>65443</v>
+        <v>65293</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>96724</v>
+        <v>94953</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1723326456896144</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1403054429672638</v>
+        <v>0.1399850054708952</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2073703695340234</v>
+        <v>0.2035751333098659</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>236</v>
@@ -1069,19 +1069,19 @@
         <v>222295</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>198396</v>
+        <v>198481</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>246062</v>
+        <v>247897</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2318086941088242</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2068861115899646</v>
+        <v>0.2069754458110784</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2565926218995504</v>
+        <v>0.258506108358858</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>35833</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23881</v>
+        <v>24485</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50494</v>
+        <v>50291</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04878623401989888</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03251358954767423</v>
+        <v>0.03333655853413192</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06874737049761759</v>
+        <v>0.06847039429762908</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -1194,19 +1194,19 @@
         <v>48838</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35612</v>
+        <v>35883</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63467</v>
+        <v>62992</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0785304246111881</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05726439530765887</v>
+        <v>0.05769983551646569</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1020546758259959</v>
+        <v>0.1012903520301465</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>75</v>
@@ -1215,19 +1215,19 @@
         <v>84670</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66179</v>
+        <v>67658</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105470</v>
+        <v>106831</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06242382114204281</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04879077031704058</v>
+        <v>0.04988143259057251</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0777586003526891</v>
+        <v>0.07876192156353404</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>61532</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>48052</v>
+        <v>48296</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>77905</v>
+        <v>79529</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08377588602915184</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06542253548457398</v>
+        <v>0.06575434259103347</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1060672408098664</v>
+        <v>0.1082786105892012</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>96</v>
@@ -1265,19 +1265,19 @@
         <v>100554</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83356</v>
+        <v>82387</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>119606</v>
+        <v>120125</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1616898182004618</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1340360143851923</v>
+        <v>0.132477190063666</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1923254665678825</v>
+        <v>0.1931602927542745</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>156</v>
@@ -1286,19 +1286,19 @@
         <v>162086</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>139474</v>
+        <v>139007</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>186476</v>
+        <v>188723</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1194990984243222</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.102827836045054</v>
+        <v>0.102483557996409</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1374807421911047</v>
+        <v>0.1391374777876379</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>202487</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>177129</v>
+        <v>179821</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>228913</v>
+        <v>227568</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2756851138893897</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2411599975373347</v>
+        <v>0.2448255998464137</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3116648919705301</v>
+        <v>0.3098335556713326</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>251</v>
@@ -1336,19 +1336,19 @@
         <v>266454</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>240893</v>
+        <v>242740</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>291812</v>
+        <v>291819</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4284548064274216</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3873534273002592</v>
+        <v>0.390322621569854</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.469229988199327</v>
+        <v>0.4692417343157211</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>443</v>
@@ -1357,19 +1357,19 @@
         <v>468941</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>432182</v>
+        <v>432832</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>506877</v>
+        <v>504304</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3457293796836215</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3186290683367201</v>
+        <v>0.3191078416271171</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3736983482882408</v>
+        <v>0.3718014687744162</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>249783</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>223287</v>
+        <v>225316</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>276175</v>
+        <v>278970</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3400783668257183</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3040046024698737</v>
+        <v>0.3067667181934214</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.376011903735705</v>
+        <v>0.3798159760213682</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>150</v>
@@ -1407,19 +1407,19 @@
         <v>156923</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>135497</v>
+        <v>135967</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>179411</v>
+        <v>178538</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.252330479379258</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2178781187910659</v>
+        <v>0.2186326248390934</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2884904919979026</v>
+        <v>0.2870875677885024</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>388</v>
@@ -1428,19 +1428,19 @@
         <v>406706</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>373161</v>
+        <v>374021</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>440707</v>
+        <v>444086</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2998463270207544</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2751154296898236</v>
+        <v>0.2757491178225457</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.324913805219985</v>
+        <v>0.3274052668004083</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>184851</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>163359</v>
+        <v>162792</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>209436</v>
+        <v>208319</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2516743992358412</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2224130461616617</v>
+        <v>0.2216401105363965</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2851462433016955</v>
+        <v>0.2836253385027506</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -1478,19 +1478,19 @@
         <v>49126</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36045</v>
+        <v>36907</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>64306</v>
+        <v>65456</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0789944713816705</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05796020632431759</v>
+        <v>0.05934658382899947</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1034027154243688</v>
+        <v>0.1052525470657228</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>228</v>
@@ -1499,19 +1499,19 @@
         <v>233978</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>205962</v>
+        <v>207829</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>261716</v>
+        <v>262386</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1725013737292591</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1518463924396267</v>
+        <v>0.1532233528877222</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1929513264522086</v>
+        <v>0.1934459707493693</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>25926</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17086</v>
+        <v>17643</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38266</v>
+        <v>39737</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04069508851939799</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02681876632344851</v>
+        <v>0.02769446686589654</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06006602161061143</v>
+        <v>0.06237354557076975</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -1624,19 +1624,19 @@
         <v>45831</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33952</v>
+        <v>33135</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59405</v>
+        <v>60934</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06655498281919971</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04930485181139749</v>
+        <v>0.04811865947733612</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08626746674694337</v>
+        <v>0.08848774882408275</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -1645,19 +1645,19 @@
         <v>71756</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57496</v>
+        <v>57264</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88751</v>
+        <v>91267</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05412771140415995</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04337043439639139</v>
+        <v>0.04319577687080182</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0669476518027414</v>
+        <v>0.06884542214427496</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>57025</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43766</v>
+        <v>43742</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>73221</v>
+        <v>72443</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08951039959647863</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06869893431331575</v>
+        <v>0.06866010668354441</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1149329046285386</v>
+        <v>0.113712750141663</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>104</v>
@@ -1695,19 +1695,19 @@
         <v>110822</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>92402</v>
+        <v>91354</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>132128</v>
+        <v>132091</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1609347603478047</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1341853886207852</v>
+        <v>0.1326639786826459</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1918761932618033</v>
+        <v>0.1918228163280997</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>160</v>
@@ -1716,19 +1716,19 @@
         <v>167846</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>142947</v>
+        <v>144396</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>193638</v>
+        <v>193658</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1266109573804721</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1078289628514281</v>
+        <v>0.1089215149245138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1460666342209818</v>
+        <v>0.1460812522088291</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>207144</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>182484</v>
+        <v>185164</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>230292</v>
+        <v>231624</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.325148908211026</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2864409610600657</v>
+        <v>0.2906482555028068</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3614849844519991</v>
+        <v>0.3635746404063556</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>306</v>
@@ -1766,19 +1766,19 @@
         <v>319931</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>292191</v>
+        <v>290765</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>343024</v>
+        <v>346052</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4646022643239456</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4243190821756915</v>
+        <v>0.4222474927998822</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4981382360167672</v>
+        <v>0.5025360031665117</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>505</v>
@@ -1787,19 +1787,19 @@
         <v>527074</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>491492</v>
+        <v>493612</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>561851</v>
+        <v>564966</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3975863405130454</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3707457919637391</v>
+        <v>0.3723451115170409</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4238191970654259</v>
+        <v>0.42616947647967</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>196138</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>173807</v>
+        <v>173460</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>220351</v>
+        <v>219650</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3078734634745798</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2728206022026803</v>
+        <v>0.2722761595672238</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3458796953884105</v>
+        <v>0.3447804563673411</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>149</v>
@@ -1837,19 +1837,19 @@
         <v>154498</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>133406</v>
+        <v>134321</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>176060</v>
+        <v>177448</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2243611053165352</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1937318130046631</v>
+        <v>0.1950608993447668</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2556736823451302</v>
+        <v>0.2576897173057618</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>336</v>
@@ -1858,19 +1858,19 @@
         <v>350636</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>317685</v>
+        <v>318564</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>384089</v>
+        <v>383679</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2644939353006077</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2396385079070611</v>
+        <v>0.2403011612137362</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2897284431521593</v>
+        <v>0.2894194579130666</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>150841</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>131769</v>
+        <v>129196</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>173782</v>
+        <v>173130</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2367721401985176</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2068351980932443</v>
+        <v>0.2027954913024568</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.27278176463387</v>
+        <v>0.2717585088084508</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>56</v>
@@ -1908,19 +1908,19 @@
         <v>57531</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44937</v>
+        <v>45040</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>73959</v>
+        <v>74161</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08354688719251484</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06525759388727721</v>
+        <v>0.06540660214558609</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1074035238233951</v>
+        <v>0.107695863612274</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>202</v>
@@ -1929,19 +1929,19 @@
         <v>208373</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>183801</v>
+        <v>185449</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>235418</v>
+        <v>235053</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1571810554017148</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1386459922369301</v>
+        <v>0.1398895152514983</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1775819156686824</v>
+        <v>0.1773069639350247</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>14286</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7580</v>
+        <v>8191</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24550</v>
+        <v>24309</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02756670402095687</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0146258306117982</v>
+        <v>0.01580560933658592</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04737147067160798</v>
+        <v>0.04690690912741884</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -2054,19 +2054,19 @@
         <v>35283</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25170</v>
+        <v>24474</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>46873</v>
+        <v>47591</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06842627670866763</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04881330614869459</v>
+        <v>0.04746412578167716</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09090158297884202</v>
+        <v>0.09229528009554559</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>47</v>
@@ -2075,19 +2075,19 @@
         <v>49569</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36821</v>
+        <v>36478</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63853</v>
+        <v>65260</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04794525101741821</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03561437528963925</v>
+        <v>0.03528258794871893</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06176109840546956</v>
+        <v>0.06312166997691103</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>75181</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>59145</v>
+        <v>60209</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>93090</v>
+        <v>94262</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1450703728723244</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.114128467761518</v>
+        <v>0.1161814724130477</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1796291545373216</v>
+        <v>0.1818898800025129</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>84</v>
@@ -2125,19 +2125,19 @@
         <v>87383</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>71769</v>
+        <v>70519</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>105301</v>
+        <v>104204</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1694645758072209</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.139184691585826</v>
+        <v>0.1367599688464854</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2042135717204596</v>
+        <v>0.2020854867070211</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>150</v>
@@ -2146,19 +2146,19 @@
         <v>162564</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>138735</v>
+        <v>137888</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>188189</v>
+        <v>188239</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1572368831476392</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1341893395692415</v>
+        <v>0.1333700398031659</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1820230292971966</v>
+        <v>0.1820705028318781</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>153199</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>132275</v>
+        <v>131358</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>174918</v>
+        <v>174549</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2956168869698606</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2552411301572688</v>
+        <v>0.2534712830208344</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3375264028698353</v>
+        <v>0.3368143984106479</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>215</v>
@@ -2196,19 +2196,19 @@
         <v>220543</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>198427</v>
+        <v>199445</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>243065</v>
+        <v>241594</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4277060016378004</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3848150641138044</v>
+        <v>0.386790200373176</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4713831439099212</v>
+        <v>0.468530051988327</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>360</v>
@@ -2217,19 +2217,19 @@
         <v>373742</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>342206</v>
+        <v>344607</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>404284</v>
+        <v>406541</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3614957998883793</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3309932450786029</v>
+        <v>0.3333154928084479</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3910366481430874</v>
+        <v>0.3932198878973107</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>168554</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>147394</v>
+        <v>147507</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>190987</v>
+        <v>191833</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3252472086535569</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2844153072377978</v>
+        <v>0.2846338686900724</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3685336524536129</v>
+        <v>0.3701668781848336</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>132</v>
@@ -2267,19 +2267,19 @@
         <v>136891</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>117325</v>
+        <v>118967</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>157082</v>
+        <v>157545</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2654773621641842</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2275315477391665</v>
+        <v>0.2307163157798829</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3046331182937556</v>
+        <v>0.3055312446787953</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>289</v>
@@ -2288,19 +2288,19 @@
         <v>305446</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>276153</v>
+        <v>275080</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>339822</v>
+        <v>334525</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2954372389075614</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2671047813282817</v>
+        <v>0.266066939977963</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3286874040983339</v>
+        <v>0.3235633337130873</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>107015</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>89489</v>
+        <v>87596</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>125445</v>
+        <v>126418</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2064988274833011</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1726800782874581</v>
+        <v>0.1690284801104007</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2420625620461317</v>
+        <v>0.2439394937606699</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>36</v>
@@ -2338,19 +2338,19 @@
         <v>35541</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26332</v>
+        <v>25137</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47971</v>
+        <v>48914</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06892578368212689</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0510664014416035</v>
+        <v>0.04874888723952454</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09303156305455849</v>
+        <v>0.09486129669217203</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>138</v>
@@ -2359,19 +2359,19 @@
         <v>142556</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>121043</v>
+        <v>120062</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>166107</v>
+        <v>167677</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1378848270390019</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1170768406781368</v>
+        <v>0.1161279070424126</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1606645773225928</v>
+        <v>0.1621822670837569</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>22300</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14293</v>
+        <v>14362</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>32513</v>
+        <v>33067</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05793277360076268</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03713156242814659</v>
+        <v>0.03730978053111374</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08446320044981315</v>
+        <v>0.08590237434600149</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>44</v>
@@ -2484,19 +2484,19 @@
         <v>44833</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>32872</v>
+        <v>34016</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>59843</v>
+        <v>60041</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1118340045539575</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08199702131585533</v>
+        <v>0.0848508860375813</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1492745758227378</v>
+        <v>0.1497688633844906</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>65</v>
@@ -2505,19 +2505,19 @@
         <v>67134</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>52944</v>
+        <v>52687</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>84448</v>
+        <v>84137</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08543074163417985</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06737323393100036</v>
+        <v>0.06704626979540637</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1074643788545268</v>
+        <v>0.1070687695465891</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>64419</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>50677</v>
+        <v>51440</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>80265</v>
+        <v>80317</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1673506761889468</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1316514071403605</v>
+        <v>0.1336352836061476</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2085167762966305</v>
+        <v>0.2086516208317689</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>63</v>
@@ -2555,19 +2555,19 @@
         <v>63804</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>50029</v>
+        <v>49598</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>78262</v>
+        <v>81418</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1591548263041262</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1247939196970607</v>
+        <v>0.1237193006455242</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1952185538081848</v>
+        <v>0.2030926656632298</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>128</v>
@@ -2576,19 +2576,19 @@
         <v>128223</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>108083</v>
+        <v>110059</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>147548</v>
+        <v>149890</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1631695245871367</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.137540854524761</v>
+        <v>0.14005562876036</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1877627302496214</v>
+        <v>0.190742417664558</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>131111</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>112481</v>
+        <v>114266</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>150146</v>
+        <v>149639</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3406092575546744</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2922105184930466</v>
+        <v>0.2968463346397384</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.390059006435608</v>
+        <v>0.3887420331098499</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>159</v>
@@ -2626,19 +2626,19 @@
         <v>162741</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>144466</v>
+        <v>142924</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>182641</v>
+        <v>182373</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4059475712379568</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3603623075823595</v>
+        <v>0.356515844029321</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4555877014787789</v>
+        <v>0.4549174725808507</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>288</v>
@@ -2647,19 +2647,19 @@
         <v>293853</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>267824</v>
+        <v>266851</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>320123</v>
+        <v>319472</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3739419074635499</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3408197418120052</v>
+        <v>0.339580614533456</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4073721396550288</v>
+        <v>0.4065441170680386</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>113822</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>97074</v>
+        <v>96678</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>134936</v>
+        <v>131027</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2956946910439116</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2521837633282213</v>
+        <v>0.2511571647529785</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3505456673602262</v>
+        <v>0.3403911592873369</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>100</v>
@@ -2697,19 +2697,19 @@
         <v>102817</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>85192</v>
+        <v>86362</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>121550</v>
+        <v>121869</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2564704444611741</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2125058433961374</v>
+        <v>0.2154247673329812</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3031999460619172</v>
+        <v>0.3039940706076608</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>219</v>
@@ -2718,19 +2718,19 @@
         <v>216639</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>195040</v>
+        <v>194265</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>244107</v>
+        <v>242123</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2756842560391233</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2481986862395806</v>
+        <v>0.2472114050371838</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3106377004438504</v>
+        <v>0.3081140466503673</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>53279</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>41968</v>
+        <v>40883</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>67218</v>
+        <v>67498</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1384126016117046</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1090276683116547</v>
+        <v>0.1062088288889488</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1746221417636322</v>
+        <v>0.175349486388224</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>27</v>
@@ -2768,19 +2768,19 @@
         <v>26697</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>18145</v>
+        <v>18458</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>37573</v>
+        <v>37438</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06659315344278534</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04526139313082794</v>
+        <v>0.04604296390239788</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09372442443940987</v>
+        <v>0.09338654123633525</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>83</v>
@@ -2789,19 +2789,19 @@
         <v>79976</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>65214</v>
+        <v>64840</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>97452</v>
+        <v>98070</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1017735702760103</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08298840506337446</v>
+        <v>0.08251187299926117</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1240128906474323</v>
+        <v>0.124798824913609</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>29191</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>19593</v>
+        <v>20623</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>39841</v>
+        <v>40289</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1000330489342902</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06714358760737119</v>
+        <v>0.07067088959715685</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.136527151412978</v>
+        <v>0.1380634811313519</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>42</v>
@@ -2914,19 +2914,19 @@
         <v>39273</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>29699</v>
+        <v>29593</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>52859</v>
+        <v>53310</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1148481469030991</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08685121329129487</v>
+        <v>0.08654203652007098</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1545812329760233</v>
+        <v>0.1558980219913795</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>71</v>
@@ -2935,19 +2935,19 @@
         <v>68464</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>54172</v>
+        <v>54472</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>84906</v>
+        <v>85612</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1080266260778261</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08547586294981929</v>
+        <v>0.08594989794035635</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1339699278199429</v>
+        <v>0.1350844813977627</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>52293</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>40169</v>
+        <v>40160</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>66834</v>
+        <v>65074</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1791991124815863</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1376532387042539</v>
+        <v>0.1376222836345449</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2290310168938774</v>
+        <v>0.2229967466288531</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>71</v>
@@ -2985,19 +2985,19 @@
         <v>65431</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>52410</v>
+        <v>52539</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>79702</v>
+        <v>80775</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1913442981805238</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1532684758941569</v>
+        <v>0.1536431217744595</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2330806234738856</v>
+        <v>0.2362167853591233</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>125</v>
@@ -3006,19 +3006,19 @@
         <v>117723</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>99134</v>
+        <v>97782</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>137413</v>
+        <v>136390</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1857521220540792</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1564202779313332</v>
+        <v>0.1542877407549973</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2168204400767433</v>
+        <v>0.2152053586632156</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>116807</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>101432</v>
+        <v>100613</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>135048</v>
+        <v>132871</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4002781330311754</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3475924925856</v>
+        <v>0.3447857844807766</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4627895739971505</v>
+        <v>0.4553283716578518</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>153</v>
@@ -3056,19 +3056,19 @@
         <v>142117</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>124117</v>
+        <v>124934</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>159156</v>
+        <v>160751</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4156045860386191</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3629651635966502</v>
+        <v>0.3653559121170106</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4654341396846637</v>
+        <v>0.4700967478623868</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>274</v>
@@ -3077,19 +3077,19 @@
         <v>258924</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>234515</v>
+        <v>233242</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>281556</v>
+        <v>281960</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4085476149279346</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3700336425763794</v>
+        <v>0.3680261318906518</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4442588547282276</v>
+        <v>0.4448963119790638</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>68604</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>55110</v>
+        <v>54995</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>83497</v>
+        <v>82900</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2350954351033546</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1888517035277617</v>
+        <v>0.1884574199930565</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2861310484075411</v>
+        <v>0.2840863878492376</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>71</v>
@@ -3127,19 +3127,19 @@
         <v>65200</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>52148</v>
+        <v>51853</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>79401</v>
+        <v>79603</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.190671291471233</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.152499640555302</v>
+        <v>0.1516369974435425</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2321997104691572</v>
+        <v>0.2327889762177441</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>142</v>
@@ -3148,19 +3148,19 @@
         <v>133805</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>117484</v>
+        <v>114514</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>156260</v>
+        <v>153108</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2111261154332106</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1853741542318926</v>
+        <v>0.1806886390255562</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2465576518848336</v>
+        <v>0.2415838623680221</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>24919</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>16773</v>
+        <v>16953</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>35100</v>
+        <v>35365</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.0853942704495935</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.05747800072271896</v>
+        <v>0.05809371445263364</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.120281399261835</v>
+        <v>0.1211900542042399</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>33</v>
@@ -3198,19 +3198,19 @@
         <v>29932</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>20542</v>
+        <v>21231</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>40405</v>
+        <v>41084</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08753167740652507</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.06007167511057492</v>
+        <v>0.06208695728501627</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1181609456751819</v>
+        <v>0.1201466390203368</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>60</v>
@@ -3219,19 +3219,19 @@
         <v>54851</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>41930</v>
+        <v>41579</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>68389</v>
+        <v>70358</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.08654752150694958</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.06616077181137089</v>
+        <v>0.06560638086497167</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1079095305134759</v>
+        <v>0.1110162592916853</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>27632</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>18212</v>
+        <v>18041</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>37949</v>
+        <v>39321</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1316539355593469</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.0867740874171526</v>
+        <v>0.08595710339866339</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1808112396111759</v>
+        <v>0.1873479303248731</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>38</v>
@@ -3344,19 +3344,19 @@
         <v>42154</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>30121</v>
+        <v>31122</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>56382</v>
+        <v>56204</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.126243719631317</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.09020831727165317</v>
+        <v>0.09320451241937835</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.168854849765454</v>
+        <v>0.1683228688004856</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>64</v>
@@ -3365,19 +3365,19 @@
         <v>69786</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>55617</v>
+        <v>54580</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>89251</v>
+        <v>87026</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1283318608256507</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1022759715212951</v>
+        <v>0.1003699626543899</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1641275080901246</v>
+        <v>0.1600361409314916</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>36059</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>26589</v>
+        <v>25796</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>47015</v>
+        <v>46922</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1718056804600493</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1266842473579671</v>
+        <v>0.1229045472578527</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2240075611217368</v>
+        <v>0.2235610833935214</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>62</v>
@@ -3415,19 +3415,19 @@
         <v>71982</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>58774</v>
+        <v>57183</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>89762</v>
+        <v>88341</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2155747896683422</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1760188636644069</v>
+        <v>0.1712535041680138</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2688230750394102</v>
+        <v>0.264568210457807</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>101</v>
@@ -3436,19 +3436,19 @@
         <v>108041</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>89094</v>
+        <v>90267</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>127443</v>
+        <v>127065</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1986815489561537</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1638381342713047</v>
+        <v>0.1659952806573473</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2343596764246978</v>
+        <v>0.2336645238834027</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>79847</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>65883</v>
+        <v>67871</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>93704</v>
+        <v>94271</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3804356624889982</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3139031239794557</v>
+        <v>0.3233772741481616</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4464577580106517</v>
+        <v>0.4491621521591421</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>105</v>
@@ -3486,19 +3486,19 @@
         <v>121022</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>101214</v>
+        <v>103915</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>138451</v>
+        <v>140916</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3624402950395006</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3031191500200153</v>
+        <v>0.3112094310820587</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4146389317854618</v>
+        <v>0.4220212664243864</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>189</v>
@@ -3507,19 +3507,19 @@
         <v>200869</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>176357</v>
+        <v>179774</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>223620</v>
+        <v>225497</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3693858344742179</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3243106813523907</v>
+        <v>0.3305947779784272</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4112241951444239</v>
+        <v>0.4146763198527496</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>38389</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>29231</v>
+        <v>28801</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>51026</v>
+        <v>49818</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1829057024130161</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1392719474963645</v>
+        <v>0.137222789385794</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2431172226139162</v>
+        <v>0.2373601417094853</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>48</v>
@@ -3557,19 +3557,19 @@
         <v>56242</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>43382</v>
+        <v>41776</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>73325</v>
+        <v>72608</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1684353157746351</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1299232966184207</v>
+        <v>0.125113629129148</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2195959617737246</v>
+        <v>0.2174480022685977</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>89</v>
@@ -3578,19 +3578,19 @@
         <v>94631</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>78943</v>
+        <v>77857</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>116202</v>
+        <v>113490</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1740203443279301</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1451717470917345</v>
+        <v>0.143174339594868</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2136894900679568</v>
+        <v>0.2087011144988991</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>27956</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>19532</v>
+        <v>20279</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>38997</v>
+        <v>38704</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1331990190785895</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.09306186901913509</v>
+        <v>0.09661886711813755</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1858050248726222</v>
+        <v>0.1844097388507965</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>37</v>
@@ -3628,19 +3628,19 @@
         <v>42508</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>31839</v>
+        <v>30976</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>56641</v>
+        <v>56215</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1273058798862051</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.09535335412637007</v>
+        <v>0.09276685138203199</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1696302815794677</v>
+        <v>0.168354456100928</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>67</v>
@@ -3649,19 +3649,19 @@
         <v>70465</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>55724</v>
+        <v>55978</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>89002</v>
+        <v>87639</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1295804114160476</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1024732056848856</v>
+        <v>0.1029405509791502</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1636702550452032</v>
+        <v>0.1611634346052564</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>171703</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>145338</v>
+        <v>146817</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>199881</v>
+        <v>200310</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.05252522388182371</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.04445995506010206</v>
+        <v>0.04491242693082637</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.06114531145882873</v>
+        <v>0.06127658054476685</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>266</v>
@@ -3774,19 +3774,19 @@
         <v>276358</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>244660</v>
+        <v>241997</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>311503</v>
+        <v>310375</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.08202169364175385</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.07261395411347268</v>
+        <v>0.07182341361150314</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.09245258619613132</v>
+        <v>0.09211782400021994</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>426</v>
@@ -3795,19 +3795,19 @@
         <v>448061</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>404132</v>
+        <v>412408</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>491638</v>
+        <v>498864</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.06749646209982216</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.06087903162292786</v>
+        <v>0.06212562572944566</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.07406106462290378</v>
+        <v>0.07514951185978144</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>381950</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>344743</v>
+        <v>342906</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>417744</v>
+        <v>415069</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1168415743340402</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1054596169419573</v>
+        <v>0.1048976858469322</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1277912665500984</v>
+        <v>0.1269730640640118</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>554</v>
@@ -3845,19 +3845,19 @@
         <v>574543</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>533293</v>
+        <v>530407</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>622359</v>
+        <v>620364</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1705212929911171</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1582787571303902</v>
+        <v>0.1574222335496422</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1847130301520613</v>
+        <v>0.1841208504710938</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>929</v>
@@ -3866,19 +3866,19 @@
         <v>956492</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>901617</v>
+        <v>897418</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1016632</v>
+        <v>1017060</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1440872705828152</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1358207426043873</v>
+        <v>0.1351881704255587</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1531468091662268</v>
+        <v>0.1532112548805254</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>1023585</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>974965</v>
+        <v>971892</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1082320</v>
+        <v>1078205</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3131229261679206</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2982497298182122</v>
+        <v>0.2973095570897372</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3310905054508715</v>
+        <v>0.3298317961857907</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1347</v>
@@ -3916,19 +3916,19 @@
         <v>1388027</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1334175</v>
+        <v>1327323</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1440755</v>
+        <v>1451697</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.4119592286257509</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3959762224043706</v>
+        <v>0.3939426351943077</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4276088828932292</v>
+        <v>0.4308562808295784</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2352</v>
@@ -3937,19 +3937,19 @@
         <v>2411611</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>2334382</v>
+        <v>2334012</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>2491357</v>
+        <v>2500272</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3632883134405508</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3516544395277404</v>
+        <v>0.3515986046692191</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3753012376450899</v>
+        <v>0.3766443100793949</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>1000941</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>950575</v>
+        <v>951220</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1059054</v>
+        <v>1058873</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3061959938545494</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2907887255102601</v>
+        <v>0.2909859405000789</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3239732046909603</v>
+        <v>0.3239178519345594</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>797</v>
@@ -3987,19 +3987,19 @@
         <v>808686</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>760797</v>
+        <v>760570</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>858078</v>
+        <v>860952</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2400139924432808</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2258007211727358</v>
+        <v>0.2257333151736725</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2546732287516156</v>
+        <v>0.2555261496371102</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1773</v>
@@ -4008,19 +4008,19 @@
         <v>1809627</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1737688</v>
+        <v>1736915</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1881095</v>
+        <v>1882730</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2726046347211926</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2617675844603933</v>
+        <v>0.2616510986068691</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2833705649800397</v>
+        <v>0.2836168580467683</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>690777</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>643319</v>
+        <v>645960</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>739595</v>
+        <v>737508</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2113142817616661</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1967964190669245</v>
+        <v>0.197604567900685</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2262481744160535</v>
+        <v>0.2256098314813457</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>323</v>
@@ -4058,19 +4058,19 @@
         <v>321716</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>290345</v>
+        <v>288502</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>354848</v>
+        <v>351789</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.09548379229809743</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.08617281083362027</v>
+        <v>0.08562594140090872</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.105317061921012</v>
+        <v>0.1044091780632276</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1014</v>
@@ -4079,19 +4079,19 @@
         <v>1012493</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>951402</v>
+        <v>953394</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1068867</v>
+        <v>1072314</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1525233191556192</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1433203884773547</v>
+        <v>0.1436205394687007</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1610155327162712</v>
+        <v>0.1615348344736267</v>
       </c>
     </row>
     <row r="51">
@@ -4426,19 +4426,19 @@
         <v>18895</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11769</v>
+        <v>11640</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29321</v>
+        <v>28198</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04169200709222717</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02596840329321776</v>
+        <v>0.02568437425899104</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06469790755887181</v>
+        <v>0.06221975938473936</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -4447,19 +4447,19 @@
         <v>26924</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18440</v>
+        <v>18027</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39347</v>
+        <v>38937</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06288875986098467</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0430711195225601</v>
+        <v>0.04210782433623136</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09190619353664496</v>
+        <v>0.09094854996493182</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -4468,19 +4468,19 @@
         <v>45819</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33751</v>
+        <v>32878</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59292</v>
+        <v>60365</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05198880148798442</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03829582445744843</v>
+        <v>0.03730550362905861</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06727646434987532</v>
+        <v>0.06849365608519491</v>
       </c>
     </row>
     <row r="5">
@@ -4497,19 +4497,19 @@
         <v>51835</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38756</v>
+        <v>39512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>66525</v>
+        <v>68147</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1143757448243283</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08551721336073589</v>
+        <v>0.08718490554327285</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1467903492414415</v>
+        <v>0.1503682082703917</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -4518,19 +4518,19 @@
         <v>86463</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71179</v>
+        <v>70272</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>103637</v>
+        <v>104927</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2019588193060836</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1662583066232495</v>
+        <v>0.1641403501310613</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2420735522802368</v>
+        <v>0.2450870886376516</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>131</v>
@@ -4539,19 +4539,19 @@
         <v>138298</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>117702</v>
+        <v>117730</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>161152</v>
+        <v>159269</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.156921172434172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1335523137067096</v>
+        <v>0.1335841641975644</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1828535171222232</v>
+        <v>0.1807169595403083</v>
       </c>
     </row>
     <row r="6">
@@ -4568,19 +4568,19 @@
         <v>110684</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>92574</v>
+        <v>93732</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>130234</v>
+        <v>130792</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2442292425694171</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2042683772631751</v>
+        <v>0.2068222608409139</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2873653906308823</v>
+        <v>0.2885963037053811</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>126</v>
@@ -4589,19 +4589,19 @@
         <v>128983</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>111447</v>
+        <v>111118</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>149419</v>
+        <v>149026</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3012779889542644</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2603172208486964</v>
+        <v>0.2595472258500547</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3490103149820734</v>
+        <v>0.3480920178784119</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>236</v>
@@ -4610,19 +4610,19 @@
         <v>239668</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>214765</v>
+        <v>214184</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>265581</v>
+        <v>266973</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.271941940758089</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2436856572178139</v>
+        <v>0.2430266032183175</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3013442571681939</v>
+        <v>0.3029237597032566</v>
       </c>
     </row>
     <row r="7">
@@ -4639,19 +4639,19 @@
         <v>152262</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>130840</v>
+        <v>133423</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>172617</v>
+        <v>173429</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3359711174546315</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2887023633967095</v>
+        <v>0.2944037052813885</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3808860967642833</v>
+        <v>0.382678356676747</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>118</v>
@@ -4660,19 +4660,19 @@
         <v>118882</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>102116</v>
+        <v>100069</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>137894</v>
+        <v>137745</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2776839914052627</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.238521498442139</v>
+        <v>0.2337398552696126</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3220919765685808</v>
+        <v>0.3217421873782815</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>269</v>
@@ -4681,19 +4681,19 @@
         <v>271144</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>246025</v>
+        <v>244458</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>299507</v>
+        <v>297454</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3076568487835101</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2791552385616892</v>
+        <v>0.2773773940279401</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3398394582902853</v>
+        <v>0.3375094843240851</v>
       </c>
     </row>
     <row r="8">
@@ -4710,19 +4710,19 @@
         <v>119523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>100503</v>
+        <v>101823</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>139057</v>
+        <v>139003</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2637318880593959</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2217626730285946</v>
+        <v>0.2246755016643084</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3068334778077831</v>
+        <v>0.3067143807112456</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>67</v>
@@ -4731,19 +4731,19 @@
         <v>66868</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52747</v>
+        <v>53237</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>83336</v>
+        <v>83532</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1561904404734046</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.123206714532605</v>
+        <v>0.1243507459418131</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1946543692406958</v>
+        <v>0.1951126378564342</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>185</v>
@@ -4752,19 +4752,19 @@
         <v>186391</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>161907</v>
+        <v>162369</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>211325</v>
+        <v>211148</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2114912365362444</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1837097340593423</v>
+        <v>0.1842333345290364</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2397819526398982</v>
+        <v>0.2395819161056188</v>
       </c>
     </row>
     <row r="9">
@@ -4856,19 +4856,19 @@
         <v>40618</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28997</v>
+        <v>29813</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56202</v>
+        <v>55423</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05939215639500433</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04239870959150899</v>
+        <v>0.04359281085428884</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08217826474619068</v>
+        <v>0.08103932337799911</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -4877,19 +4877,19 @@
         <v>51796</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39822</v>
+        <v>39522</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66419</v>
+        <v>67349</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08502232815595019</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06536672279690438</v>
+        <v>0.0648747485913499</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.109025417339374</v>
+        <v>0.1105513191822545</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>86</v>
@@ -4898,19 +4898,19 @@
         <v>92415</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74045</v>
+        <v>72993</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112764</v>
+        <v>111731</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07146700605163665</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05726083848362527</v>
+        <v>0.05644726245414856</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08720365712730428</v>
+        <v>0.08640450526530351</v>
       </c>
     </row>
     <row r="11">
@@ -4927,19 +4927,19 @@
         <v>107292</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>88216</v>
+        <v>89153</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>129173</v>
+        <v>126309</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1568816282061976</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1289885288177459</v>
+        <v>0.1303590587342377</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1888759405323635</v>
+        <v>0.1846886788223654</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>142</v>
@@ -4948,19 +4948,19 @@
         <v>150239</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>128550</v>
+        <v>128706</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>171474</v>
+        <v>172793</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2466142643112499</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2110114215567744</v>
+        <v>0.2112679611343847</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2814711560942019</v>
+        <v>0.2836350740114482</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>243</v>
@@ -4969,19 +4969,19 @@
         <v>257531</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>227202</v>
+        <v>229029</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>286272</v>
+        <v>287407</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1991563386672803</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1757016426673202</v>
+        <v>0.1771144872175955</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2213824971035194</v>
+        <v>0.2222605957152218</v>
       </c>
     </row>
     <row r="12">
@@ -4998,19 +4998,19 @@
         <v>210654</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>186267</v>
+        <v>186010</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>235828</v>
+        <v>234615</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3080173581471779</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2723585782929031</v>
+        <v>0.2719828014128295</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3448268108325158</v>
+        <v>0.3430541930014627</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>174</v>
@@ -5019,19 +5019,19 @@
         <v>187729</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>164731</v>
+        <v>164361</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>211271</v>
+        <v>211131</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3081533722066456</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2704014866868635</v>
+        <v>0.2697947560509454</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3467956436933261</v>
+        <v>0.3465671602053408</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>378</v>
@@ -5040,19 +5040,19 @@
         <v>398383</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>363887</v>
+        <v>366096</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>430522</v>
+        <v>434817</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3080814368952479</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.281404515390908</v>
+        <v>0.2831125206614518</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3329351999087015</v>
+        <v>0.3362570685742355</v>
       </c>
     </row>
     <row r="13">
@@ -5069,19 +5069,19 @@
         <v>210018</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>187657</v>
+        <v>184462</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>238088</v>
+        <v>236084</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3070882522766752</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2743918806901518</v>
+        <v>0.2697193747827914</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3481312011801745</v>
+        <v>0.3452008013901171</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>151</v>
@@ -5090,19 +5090,19 @@
         <v>161240</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>140724</v>
+        <v>139524</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>184630</v>
+        <v>184216</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2646714061354865</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2309948968237971</v>
+        <v>0.2290259820233313</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3030656324856469</v>
+        <v>0.3023858598926269</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>356</v>
@@ -5111,19 +5111,19 @@
         <v>371258</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>339043</v>
+        <v>337030</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>409518</v>
+        <v>405006</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2871048887299747</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2621917861984566</v>
+        <v>0.260635443920831</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3166921661634186</v>
+        <v>0.3132028432073673</v>
       </c>
     </row>
     <row r="14">
@@ -5140,19 +5140,19 @@
         <v>115320</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>95295</v>
+        <v>94774</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>134956</v>
+        <v>133698</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.168620604974945</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1393396173789329</v>
+        <v>0.1385786546355045</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1973317206776677</v>
+        <v>0.1954929932326947</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -5161,19 +5161,19 @@
         <v>58203</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45134</v>
+        <v>44884</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74806</v>
+        <v>75676</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09553862919066787</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07408701545826227</v>
+        <v>0.0736762127476195</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1227920360771821</v>
+        <v>0.1242202440330503</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>171</v>
@@ -5182,19 +5182,19 @@
         <v>173523</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>150681</v>
+        <v>150242</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>200706</v>
+        <v>199384</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1341903296558605</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1165259973432014</v>
+        <v>0.1161867377144714</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1552119532780195</v>
+        <v>0.1541892038919846</v>
       </c>
     </row>
     <row r="15">
@@ -5286,19 +5286,19 @@
         <v>34351</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23316</v>
+        <v>23092</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46876</v>
+        <v>48041</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05061826106764775</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03435785289402413</v>
+        <v>0.03402672081487777</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06907363558192448</v>
+        <v>0.07078995366285686</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -5307,19 +5307,19 @@
         <v>57221</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43781</v>
+        <v>43946</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>75076</v>
+        <v>74064</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08063126377051612</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06169270210352693</v>
+        <v>0.06192526948210813</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1057908825378687</v>
+        <v>0.1043653023860634</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>84</v>
@@ -5328,19 +5328,19 @@
         <v>91572</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72340</v>
+        <v>72673</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>111214</v>
+        <v>112764</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06596013514901007</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05210694260577165</v>
+        <v>0.05234708428245523</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08010838219085906</v>
+        <v>0.08122459835559735</v>
       </c>
     </row>
     <row r="17">
@@ -5357,19 +5357,19 @@
         <v>128746</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>107760</v>
+        <v>108363</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>150466</v>
+        <v>150864</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1897131485069891</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.15878902143141</v>
+        <v>0.1596780209774424</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2217188701270162</v>
+        <v>0.2223043711921636</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>166</v>
@@ -5378,19 +5378,19 @@
         <v>173839</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>151625</v>
+        <v>151886</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>199414</v>
+        <v>200257</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2449607060822631</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2136573884020799</v>
+        <v>0.2140258828061269</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2809979442172797</v>
+        <v>0.2821865280084794</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>287</v>
@@ -5399,19 +5399,19 @@
         <v>302585</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>272241</v>
+        <v>269537</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>335759</v>
+        <v>334164</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2179542771942451</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1960971367968645</v>
+        <v>0.1941495182749698</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.241849857619837</v>
+        <v>0.2407005104149796</v>
       </c>
     </row>
     <row r="18">
@@ -5428,19 +5428,19 @@
         <v>211051</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>186722</v>
+        <v>185691</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>236971</v>
+        <v>237416</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.310994080139894</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2751438072896311</v>
+        <v>0.2736249167321742</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3491880969408018</v>
+        <v>0.3498429064646322</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>221</v>
@@ -5449,19 +5449,19 @@
         <v>238765</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>213133</v>
+        <v>215150</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>262915</v>
+        <v>266813</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3364494141517685</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3003306037913567</v>
+        <v>0.3031724887610742</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3704792411608899</v>
+        <v>0.3759717853775386</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>425</v>
@@ -5470,19 +5470,19 @@
         <v>449817</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>417900</v>
+        <v>413786</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>484690</v>
+        <v>485666</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3240061913563393</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3010161532989044</v>
+        <v>0.2980530839484563</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3491258369629042</v>
+        <v>0.3498284318658975</v>
       </c>
     </row>
     <row r="19">
@@ -5499,19 +5499,19 @@
         <v>211628</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>186561</v>
+        <v>188512</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>236953</v>
+        <v>238125</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3118441044328865</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2749068603362939</v>
+        <v>0.277781769296449</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3491606663895123</v>
+        <v>0.3508882284366787</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>149</v>
@@ -5520,19 +5520,19 @@
         <v>157557</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>135743</v>
+        <v>134819</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>179572</v>
+        <v>180135</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2220172744683832</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1912787633446619</v>
+        <v>0.1899760083455458</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2530392503050394</v>
+        <v>0.2538322409358916</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>349</v>
@@ -5541,19 +5541,19 @@
         <v>369186</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>338150</v>
+        <v>338292</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>403460</v>
+        <v>404443</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2659269421920139</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2435717019650764</v>
+        <v>0.2436742368418922</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2906152985418495</v>
+        <v>0.2913233698601247</v>
       </c>
     </row>
     <row r="20">
@@ -5570,19 +5570,19 @@
         <v>92858</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>75923</v>
+        <v>76075</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>112544</v>
+        <v>111847</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1368304058525826</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1118756498681724</v>
+        <v>0.1120997507453523</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1658394682129338</v>
+        <v>0.1648113437726175</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>78</v>
@@ -5591,19 +5591,19 @@
         <v>82279</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>64762</v>
+        <v>65776</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>99671</v>
+        <v>102315</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1159413415270692</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0912576338633876</v>
+        <v>0.09268583369179829</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1404481694863932</v>
+        <v>0.1441741298467148</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>169</v>
@@ -5612,19 +5612,19 @@
         <v>175137</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>151397</v>
+        <v>151676</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>203239</v>
+        <v>199716</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1261524541083915</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1090520626162454</v>
+        <v>0.1092532715809896</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1463941426522233</v>
+        <v>0.1438565154835074</v>
       </c>
     </row>
     <row r="21">
@@ -5716,19 +5716,19 @@
         <v>39609</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27392</v>
+        <v>27463</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54219</v>
+        <v>52855</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06467123943049526</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04472312236855652</v>
+        <v>0.04483963958420624</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0885241705905825</v>
+        <v>0.08629791786268379</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>54</v>
@@ -5737,19 +5737,19 @@
         <v>61576</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46904</v>
+        <v>47128</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77391</v>
+        <v>78714</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.101121364234138</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07702683690467708</v>
+        <v>0.0773942904766801</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1270933395305118</v>
+        <v>0.1292668281255195</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>89</v>
@@ -5758,19 +5758,19 @@
         <v>101185</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>83616</v>
+        <v>83240</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>123151</v>
+        <v>125114</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08284341927583275</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06845876733920467</v>
+        <v>0.06815100103921186</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1008276747224429</v>
+        <v>0.1024342638053036</v>
       </c>
     </row>
     <row r="23">
@@ -5787,19 +5787,19 @@
         <v>119115</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>100803</v>
+        <v>100482</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>142664</v>
+        <v>140729</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1944821000621658</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1645836139705785</v>
+        <v>0.1640589085293526</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2329306802350798</v>
+        <v>0.2297725395917422</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>163</v>
@@ -5808,19 +5808,19 @@
         <v>182870</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>157127</v>
+        <v>157271</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>206743</v>
+        <v>208561</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3003142735570126</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2580385877521471</v>
+        <v>0.2582751060959502</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3395182896123089</v>
+        <v>0.342503978074899</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>269</v>
@@ -5829,19 +5829,19 @@
         <v>301985</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>270360</v>
+        <v>271647</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>336510</v>
+        <v>334770</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2472446434150795</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2213516790083744</v>
+        <v>0.2224056253484488</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2755111606326153</v>
+        <v>0.2740867395180119</v>
       </c>
     </row>
     <row r="24">
@@ -5858,19 +5858,19 @@
         <v>177281</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>156898</v>
+        <v>154166</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>204457</v>
+        <v>202001</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2894517852087874</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2561711981426773</v>
+        <v>0.2517102995045435</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3338223429089469</v>
+        <v>0.329811867385622</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>170</v>
@@ -5879,19 +5879,19 @@
         <v>194648</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>171624</v>
+        <v>168004</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>219458</v>
+        <v>218865</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3196555350274185</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2818458899347436</v>
+        <v>0.2759004005328816</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3604007820003542</v>
+        <v>0.3594259142864178</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>333</v>
@@ -5900,19 +5900,19 @@
         <v>371929</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>337901</v>
+        <v>337313</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>407747</v>
+        <v>406510</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.304509839925047</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2766499819528183</v>
+        <v>0.2761682604679545</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3338352315124037</v>
+        <v>0.3328218205442089</v>
       </c>
     </row>
     <row r="25">
@@ -5929,19 +5929,19 @@
         <v>179385</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>155343</v>
+        <v>157899</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>204540</v>
+        <v>203335</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2928861278491435</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.253632033756128</v>
+        <v>0.2578061745637912</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3339572133283555</v>
+        <v>0.331989369948882</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>100</v>
@@ -5950,19 +5950,19 @@
         <v>114516</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>96224</v>
+        <v>94664</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>138860</v>
+        <v>136832</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1880612881167403</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1580209574131583</v>
+        <v>0.1554598808393462</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2280390237214298</v>
+        <v>0.2247088677387504</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>260</v>
@@ -5971,19 +5971,19 @@
         <v>293901</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>260879</v>
+        <v>262676</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>325791</v>
+        <v>327577</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2406257899178578</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2135898352714906</v>
+        <v>0.2150609165337859</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2667350686635922</v>
+        <v>0.2681969904270228</v>
       </c>
     </row>
     <row r="26">
@@ -6000,19 +6000,19 @@
         <v>97082</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>78556</v>
+        <v>77644</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>117402</v>
+        <v>117268</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.158508747449408</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1282610592942046</v>
+        <v>0.1267716937190196</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1916855551833598</v>
+        <v>0.191466285392191</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>46</v>
@@ -6021,19 +6021,19 @@
         <v>55320</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>41169</v>
+        <v>41944</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>73148</v>
+        <v>72825</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09084753906469062</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06760833246683288</v>
+        <v>0.06888140723673608</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1201263704286353</v>
+        <v>0.1195957949975695</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>128</v>
@@ -6042,19 +6042,19 @@
         <v>152402</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>127584</v>
+        <v>126396</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>178871</v>
+        <v>178909</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1247763074661829</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1044572532129088</v>
+        <v>0.1034839574097876</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1464471176893994</v>
+        <v>0.1464783530500218</v>
       </c>
     </row>
     <row r="27">
@@ -6146,19 +6146,19 @@
         <v>43369</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>30914</v>
+        <v>31055</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>58592</v>
+        <v>58705</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1015490677210913</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07238532224027998</v>
+        <v>0.07271631697777732</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1371949908042475</v>
+        <v>0.1374585347367579</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>59</v>
@@ -6167,19 +6167,19 @@
         <v>65172</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>50775</v>
+        <v>51257</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>81731</v>
+        <v>81465</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1465505418658266</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1141761337094393</v>
+        <v>0.115258333713945</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1837844367656717</v>
+        <v>0.1831861548864697</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>96</v>
@@ -6188,19 +6188,19 @@
         <v>108541</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>87366</v>
+        <v>89777</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>128768</v>
+        <v>131084</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1245050218667002</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1002148446591603</v>
+        <v>0.1029808780863696</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1477062020098659</v>
+        <v>0.1503633703856083</v>
       </c>
     </row>
     <row r="29">
@@ -6217,19 +6217,19 @@
         <v>104749</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>86908</v>
+        <v>86498</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>124177</v>
+        <v>124716</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2452722934373618</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2034964828868848</v>
+        <v>0.2025373361207062</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2907633488265848</v>
+        <v>0.2920244794307612</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>121</v>
@@ -6238,19 +6238,19 @@
         <v>131763</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>112379</v>
+        <v>113605</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>151213</v>
+        <v>154533</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2962902146152546</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2527019989816643</v>
+        <v>0.2554593101734444</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3400263632433722</v>
+        <v>0.3474920735512131</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>215</v>
@@ -6259,19 +6259,19 @@
         <v>236512</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>208497</v>
+        <v>208214</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>263389</v>
+        <v>266779</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.271297331092734</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2391613387782779</v>
+        <v>0.2388367289425272</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3021264298680379</v>
+        <v>0.306015135337132</v>
       </c>
     </row>
     <row r="30">
@@ -6288,19 +6288,19 @@
         <v>143165</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>124375</v>
+        <v>122961</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>163756</v>
+        <v>164260</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3352229207523833</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2912262982375312</v>
+        <v>0.2879148269035205</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3834371847929962</v>
+        <v>0.3846171145606591</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>135</v>
@@ -6309,19 +6309,19 @@
         <v>151384</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>130475</v>
+        <v>131900</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>172213</v>
+        <v>173560</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3404111939960828</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2933936674300651</v>
+        <v>0.2965984370133132</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3872470732086883</v>
+        <v>0.3902773403113398</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>270</v>
@@ -6330,19 +6330,19 @@
         <v>294549</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>267026</v>
+        <v>268554</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>323230</v>
+        <v>325703</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3378695398896631</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3062986491117032</v>
+        <v>0.3080512923725519</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3707683983941688</v>
+        <v>0.3736053158266632</v>
       </c>
     </row>
     <row r="31">
@@ -6359,19 +6359,19 @@
         <v>96181</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>79205</v>
+        <v>79286</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>114627</v>
+        <v>113878</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2252106191779978</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1854591853828143</v>
+        <v>0.1856502523035872</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2684014064130144</v>
+        <v>0.2666486842296205</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>60</v>
@@ -6380,19 +6380,19 @@
         <v>65589</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>52516</v>
+        <v>51764</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>82334</v>
+        <v>82813</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1474867295108366</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1180896384255727</v>
+        <v>0.1164002732101781</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1851408593382399</v>
+        <v>0.1862169069639264</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>149</v>
@@ -6401,19 +6401,19 @@
         <v>161770</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>141227</v>
+        <v>138473</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>189497</v>
+        <v>187457</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1855624502873693</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.161998291717785</v>
+        <v>0.15883929252067</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.217367405436585</v>
+        <v>0.2150273004733496</v>
       </c>
     </row>
     <row r="32">
@@ -6430,19 +6430,19 @@
         <v>39609</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>28087</v>
+        <v>27932</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>52280</v>
+        <v>53445</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09274509891116572</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06576593747972433</v>
+        <v>0.06540421893726713</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1224139902610817</v>
+        <v>0.1251416473013042</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>28</v>
@@ -6451,19 +6451,19 @@
         <v>30801</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>20987</v>
+        <v>20656</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>44660</v>
+        <v>42956</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0692613200119994</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04719218940971572</v>
+        <v>0.04644870552202861</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1004243081623433</v>
+        <v>0.09659271762744717</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>64</v>
@@ -6472,19 +6472,19 @@
         <v>70410</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>55454</v>
+        <v>54696</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>89469</v>
+        <v>88907</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08076565686353342</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.063609605170734</v>
+        <v>0.06274061729782862</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1026274299378074</v>
+        <v>0.101982718266026</v>
       </c>
     </row>
     <row r="33">
@@ -6576,19 +6576,19 @@
         <v>25922</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>16524</v>
+        <v>17439</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>35807</v>
+        <v>36437</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08500917481237687</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05418831166741509</v>
+        <v>0.05719015033391767</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1174231447558651</v>
+        <v>0.1194909828347172</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>51</v>
@@ -6597,19 +6597,19 @@
         <v>52528</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>40575</v>
+        <v>40193</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>67252</v>
+        <v>67076</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1505006036969458</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1162548027512856</v>
+        <v>0.1151598101977953</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1926884147289905</v>
+        <v>0.1921830064270248</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>77</v>
@@ -6618,19 +6618,19 @@
         <v>78450</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>63316</v>
+        <v>63069</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>97735</v>
+        <v>96652</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1199622740604141</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09681989416624166</v>
+        <v>0.09644216695452465</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1494520971421859</v>
+        <v>0.1477950738864107</v>
       </c>
     </row>
     <row r="35">
@@ -6647,19 +6647,19 @@
         <v>94664</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>77762</v>
+        <v>77495</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>114285</v>
+        <v>114245</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3104387896331845</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2550102695514937</v>
+        <v>0.2541355789458963</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3747811780814169</v>
+        <v>0.3746515855858675</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>102</v>
@@ -6668,19 +6668,19 @@
         <v>103611</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>87448</v>
+        <v>86431</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>122371</v>
+        <v>119745</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2968619831013771</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2505526738285906</v>
+        <v>0.2476400003289648</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.350614425029255</v>
+        <v>0.3430889424132033</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>185</v>
@@ -6689,19 +6689,19 @@
         <v>198275</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>175328</v>
+        <v>173845</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>224012</v>
+        <v>221938</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3031927808918868</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2681037446741347</v>
+        <v>0.265835101571321</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3425482441220898</v>
+        <v>0.3393775971541788</v>
       </c>
     </row>
     <row r="36">
@@ -6718,19 +6718,19 @@
         <v>116714</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>100028</v>
+        <v>98552</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>135512</v>
+        <v>134651</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.38274871875065</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3280284532467653</v>
+        <v>0.3231889753790777</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4443926633752621</v>
+        <v>0.4415701850846998</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>120</v>
@@ -6739,19 +6739,19 @@
         <v>124466</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>106285</v>
+        <v>107394</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>143890</v>
+        <v>144405</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3566165126484022</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3045244896235873</v>
+        <v>0.3077008350144247</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4122681649751792</v>
+        <v>0.4137447709624751</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>228</v>
@@ -6760,19 +6760,19 @@
         <v>241181</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>215422</v>
+        <v>216482</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>268425</v>
+        <v>267420</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3688018312110312</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3294128421718243</v>
+        <v>0.3310341656137673</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4104624398286801</v>
+        <v>0.4089259637947449</v>
       </c>
     </row>
     <row r="37">
@@ -6789,19 +6789,19 @@
         <v>49901</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>37372</v>
+        <v>36410</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>63853</v>
+        <v>65669</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1636429158828439</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1225561873125866</v>
+        <v>0.1194029413586855</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2093959132545407</v>
+        <v>0.2153524350310072</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>41</v>
@@ -6810,19 +6810,19 @@
         <v>41384</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>30148</v>
+        <v>30370</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>55232</v>
+        <v>54316</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1185706574572021</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08637904511446053</v>
+        <v>0.08701450114712177</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1582476971606161</v>
+        <v>0.1556257079254612</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>86</v>
@@ -6831,19 +6831,19 @@
         <v>91284</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>74167</v>
+        <v>73640</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>111107</v>
+        <v>109025</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1395876288183127</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1134130223021104</v>
+        <v>0.1126067685298508</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1699000941154047</v>
+        <v>0.1667151115654097</v>
       </c>
     </row>
     <row r="38">
@@ -6860,19 +6860,19 @@
         <v>17735</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>10422</v>
+        <v>10497</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>29091</v>
+        <v>28242</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05816040092094471</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03417594265642464</v>
+        <v>0.034421934238143</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09539912330060654</v>
+        <v>0.09261492667355684</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>26</v>
@@ -6881,19 +6881,19 @@
         <v>27032</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>18343</v>
+        <v>18554</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>38624</v>
+        <v>38432</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.07745024309607268</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.05255688983968507</v>
+        <v>0.05315946970912262</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1106638247649068</v>
+        <v>0.1101150557062091</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>42</v>
@@ -6902,19 +6902,19 @@
         <v>44767</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>33429</v>
+        <v>33032</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>60147</v>
+        <v>58921</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.06845548501835529</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.0511173816447712</v>
+        <v>0.05051150026780654</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09197409505596162</v>
+        <v>0.09009887973782878</v>
       </c>
     </row>
     <row r="39">
@@ -7006,19 +7006,19 @@
         <v>37119</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>27232</v>
+        <v>26112</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>49959</v>
+        <v>49961</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.149785454436643</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1098860786476451</v>
+        <v>0.1053697116129948</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2015969735717631</v>
+        <v>0.2016055964429984</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>74</v>
@@ -7027,19 +7027,19 @@
         <v>83264</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>66385</v>
+        <v>67718</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>101078</v>
+        <v>100002</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2163228505570912</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1724710573684562</v>
+        <v>0.1759335180810758</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2626060056658464</v>
+        <v>0.2598108132599409</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>108</v>
@@ -7048,19 +7048,19 @@
         <v>120383</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>99616</v>
+        <v>103195</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>142349</v>
+        <v>142912</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1902622358632038</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1574406853215033</v>
+        <v>0.1630976128547848</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2249784062774598</v>
+        <v>0.2258690861897553</v>
       </c>
     </row>
     <row r="41">
@@ -7077,19 +7077,19 @@
         <v>92683</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>77455</v>
+        <v>76383</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>108541</v>
+        <v>110452</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3739980083822527</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3125499650172902</v>
+        <v>0.3082221763583112</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4379879144513136</v>
+        <v>0.4457003990875507</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>122</v>
@@ -7098,19 +7098,19 @@
         <v>132242</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>112572</v>
+        <v>111601</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>152153</v>
+        <v>150948</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3435718039735576</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2924668546401429</v>
+        <v>0.2899456798784679</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3953020827380656</v>
+        <v>0.3921706227182205</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>204</v>
@@ -7119,19 +7119,19 @@
         <v>224925</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>202836</v>
+        <v>200519</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>249826</v>
+        <v>252500</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3554887955591177</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3205766647891989</v>
+        <v>0.3169156833716488</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3948434691456651</v>
+        <v>0.3990705690317073</v>
       </c>
     </row>
     <row r="42">
@@ -7148,19 +7148,19 @@
         <v>63914</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>49700</v>
+        <v>50514</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>78734</v>
+        <v>79526</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2579081858339499</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2005522355640113</v>
+        <v>0.2038361382937241</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3177112936137216</v>
+        <v>0.3209078254492908</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>98</v>
@@ -7169,19 +7169,19 @@
         <v>109347</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>92256</v>
+        <v>91632</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>128658</v>
+        <v>127641</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2840887918076263</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2396869187660721</v>
+        <v>0.238064173750354</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3342607786460833</v>
+        <v>0.3316168149811409</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>155</v>
@@ -7190,19 +7190,19 @@
         <v>173261</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>150238</v>
+        <v>150837</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>198171</v>
+        <v>196268</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2738346681942319</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2374479010968694</v>
+        <v>0.2383936771442711</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3132049177116344</v>
+        <v>0.3101974119763906</v>
       </c>
     </row>
     <row r="43">
@@ -7219,19 +7219,19 @@
         <v>35433</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>24538</v>
+        <v>24914</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>49628</v>
+        <v>50393</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1429817955880351</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.09901819816574446</v>
+        <v>0.1005356632774389</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2002604965927005</v>
+        <v>0.2033463301198636</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>37</v>
@@ -7240,19 +7240,19 @@
         <v>41241</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>29046</v>
+        <v>29871</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>53823</v>
+        <v>54844</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1071452531335049</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.07546288496700856</v>
+        <v>0.07760545939263709</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1398350862370764</v>
+        <v>0.1424884279596533</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>66</v>
@@ -7261,19 +7261,19 @@
         <v>76674</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>60113</v>
+        <v>59342</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>96068</v>
+        <v>94943</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.121181304727379</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.09500680722248458</v>
+        <v>0.09378858287947374</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1518328845519622</v>
+        <v>0.150054463158597</v>
       </c>
     </row>
     <row r="44">
@@ -7290,19 +7290,19 @@
         <v>18667</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>11575</v>
+        <v>12378</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>28768</v>
+        <v>29377</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.07532655575911933</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.046709336579437</v>
+        <v>0.04994840505415043</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1160871445756909</v>
+        <v>0.1185413684373023</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>16</v>
@@ -7311,19 +7311,19 @@
         <v>18811</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>10989</v>
+        <v>10862</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>30735</v>
+        <v>29796</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.04887130052821997</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.02855044008058393</v>
+        <v>0.02822058901899534</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.07985182397314212</v>
+        <v>0.07741073424028264</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>34</v>
@@ -7332,19 +7332,19 @@
         <v>37478</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>26169</v>
+        <v>26099</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>51330</v>
+        <v>51111</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.05923299565606764</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.04135872807964257</v>
+        <v>0.04124881625856913</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.08112623200159194</v>
+        <v>0.08077998348533272</v>
       </c>
     </row>
     <row r="45">
@@ -7436,19 +7436,19 @@
         <v>239885</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>207572</v>
+        <v>209028</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>272913</v>
+        <v>271590</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.07038792018756238</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.06090661815830937</v>
+        <v>0.06133388865357928</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.08007926751799306</v>
+        <v>0.07969089095978885</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>363</v>
@@ -7457,19 +7457,19 @@
         <v>398481</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>363989</v>
+        <v>360048</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>440022</v>
+        <v>442543</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1127386090479055</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1029802051885088</v>
+        <v>0.1018650681807416</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.124491430912667</v>
+        <v>0.1252046576601347</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>583</v>
@@ -7478,19 +7478,19 @@
         <v>638365</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>586655</v>
+        <v>589591</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>687247</v>
+        <v>688241</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.09194915088355692</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.08450088411106206</v>
+        <v>0.08492383752456653</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.09898993160892516</v>
+        <v>0.0991331308406458</v>
       </c>
     </row>
     <row r="47">
@@ -7507,19 +7507,19 @@
         <v>699084</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>653199</v>
+        <v>647953</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>752672</v>
+        <v>756319</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2051281465592037</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1916642072222912</v>
+        <v>0.190124924099927</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2208520126290282</v>
+        <v>0.221922193964293</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>899</v>
@@ -7528,19 +7528,19 @@
         <v>961028</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>903198</v>
+        <v>909145</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1012582</v>
+        <v>1015635</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2718950499706376</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2555337973382025</v>
+        <v>0.257216300631376</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2864808213155945</v>
+        <v>0.2873445496774829</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1534</v>
@@ -7549,19 +7549,19 @@
         <v>1660112</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1587239</v>
+        <v>1586819</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1739965</v>
+        <v>1729251</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2391199574612247</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2286234515493475</v>
+        <v>0.228562880152921</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.250621790382791</v>
+        <v>0.2490786332543379</v>
       </c>
     </row>
     <row r="48">
@@ -7578,19 +7578,19 @@
         <v>1033464</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>979496</v>
+        <v>981484</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1090434</v>
+        <v>1090651</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3032432543128324</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.287407628933861</v>
+        <v>0.2879910310971768</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3199594471148319</v>
+        <v>0.320023300787962</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1044</v>
@@ -7599,19 +7599,19 @@
         <v>1135323</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1074428</v>
+        <v>1078658</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1190223</v>
+        <v>1190681</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.321206947573637</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3039785202766951</v>
+        <v>0.3051751826689975</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3367392651474167</v>
+        <v>0.3368688685877768</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2025</v>
@@ -7620,19 +7620,19 @@
         <v>2168788</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>2079474</v>
+        <v>2091428</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>2248795</v>
+        <v>2253006</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3123887805125485</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2995241358654683</v>
+        <v>0.3012460396769375</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3239129897310936</v>
+        <v>0.3245194397396302</v>
       </c>
     </row>
     <row r="49">
@@ -7649,19 +7649,19 @@
         <v>934809</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>885714</v>
+        <v>883842</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>988357</v>
+        <v>989816</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2742954410230775</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2598896888147709</v>
+        <v>0.2593403719599973</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2900077340290335</v>
+        <v>0.2904358560371894</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>656</v>
@@ -7670,19 +7670,19 @@
         <v>700408</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>655488</v>
+        <v>659226</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>751819</v>
+        <v>753324</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1981603507950545</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1854515368131434</v>
+        <v>0.1865088917930556</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2127053600312109</v>
+        <v>0.2131311592796434</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1535</v>
@@ -7691,19 +7691,19 @@
         <v>1635217</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1562509</v>
+        <v>1558652</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1718713</v>
+        <v>1710155</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2355341767168453</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2250614303996156</v>
+        <v>0.2245058467080543</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.247560751253842</v>
+        <v>0.2463280075466968</v>
       </c>
     </row>
     <row r="50">
@@ -7720,19 +7720,19 @@
         <v>500795</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>463262</v>
+        <v>457459</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>547514</v>
+        <v>541404</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1469452379173239</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.13593217121671</v>
+        <v>0.1342294949104872</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1606536412899973</v>
+        <v>0.1588609544460601</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>316</v>
@@ -7741,19 +7741,19 @@
         <v>339314</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>306901</v>
+        <v>303543</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>375225</v>
+        <v>375675</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.09599904261276535</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.08682888421767285</v>
+        <v>0.08587866395534384</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.106159121769084</v>
+        <v>0.1062864994867095</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>793</v>
@@ -7762,19 +7762,19 @@
         <v>840109</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>780560</v>
+        <v>787118</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>898540</v>
+        <v>897884</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1210079344258246</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1124307153571702</v>
+        <v>0.1133751794390592</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1294243155026176</v>
+        <v>0.1293297918120755</v>
       </c>
     </row>
     <row r="51">
@@ -8109,19 +8109,19 @@
         <v>15066</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8090</v>
+        <v>8133</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25234</v>
+        <v>24528</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03591778001919581</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01928682925738138</v>
+        <v>0.01939021371633009</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06015860604065415</v>
+        <v>0.05847406763911198</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -8130,19 +8130,19 @@
         <v>24391</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15713</v>
+        <v>16682</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34803</v>
+        <v>36304</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06179174917857624</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03980586757306578</v>
+        <v>0.0422607693219539</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08816959072936843</v>
+        <v>0.09197314125668078</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -8151,19 +8151,19 @@
         <v>39457</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28678</v>
+        <v>27130</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54261</v>
+        <v>53443</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0484617616214114</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03522289262312125</v>
+        <v>0.03332181525194757</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06664412279019639</v>
+        <v>0.06563933418781336</v>
       </c>
     </row>
     <row r="5">
@@ -8180,19 +8180,19 @@
         <v>48899</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36731</v>
+        <v>35815</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64057</v>
+        <v>63015</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1165747967559057</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0875657640514704</v>
+        <v>0.08538359465380518</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1527109643436557</v>
+        <v>0.1502286062571122</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -8201,19 +8201,19 @@
         <v>64736</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51787</v>
+        <v>50895</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81427</v>
+        <v>80160</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1640000861473581</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1311959621508544</v>
+        <v>0.1289371746227638</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2062851225438825</v>
+        <v>0.2030759891750309</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>113</v>
@@ -8222,19 +8222,19 @@
         <v>113634</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>94624</v>
+        <v>94392</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>133712</v>
+        <v>132967</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1395670927558587</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1162188437090343</v>
+        <v>0.115932968396014</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1642268066968682</v>
+        <v>0.1633112066208447</v>
       </c>
     </row>
     <row r="6">
@@ -8251,19 +8251,19 @@
         <v>137337</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>116710</v>
+        <v>116600</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>155718</v>
+        <v>157380</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.327410749576862</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2782357307701707</v>
+        <v>0.277975558745962</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3712307415507989</v>
+        <v>0.3751934802349054</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>132</v>
@@ -8272,19 +8272,19 @@
         <v>130349</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>113169</v>
+        <v>110658</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>149307</v>
+        <v>149279</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3302240241562823</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.286701619490834</v>
+        <v>0.2803391818423563</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3782508849753835</v>
+        <v>0.3781820831812331</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>260</v>
@@ -8293,19 +8293,19 @@
         <v>267686</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>241843</v>
+        <v>241125</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>297021</v>
+        <v>292342</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3287746556845353</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2970341997061622</v>
+        <v>0.296152548920826</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.364804217977478</v>
+        <v>0.3590576092837747</v>
       </c>
     </row>
     <row r="7">
@@ -8322,19 +8322,19 @@
         <v>153580</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>134377</v>
+        <v>134811</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>173595</v>
+        <v>173814</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3661342012230953</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3203548596591995</v>
+        <v>0.3213898908652283</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4138494032515438</v>
+        <v>0.4143730856091516</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>130</v>
@@ -8343,19 +8343,19 @@
         <v>126968</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>109691</v>
+        <v>107470</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>144293</v>
+        <v>144382</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3216580140455795</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2778897302512663</v>
+        <v>0.2722638558203733</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3655497819193515</v>
+        <v>0.3657751991427441</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>275</v>
@@ -8364,19 +8364,19 @@
         <v>280547</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>252347</v>
+        <v>253632</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>309351</v>
+        <v>307888</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3445716620450199</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3099358109000379</v>
+        <v>0.3115139748050995</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3799481243484553</v>
+        <v>0.3781512723619869</v>
       </c>
     </row>
     <row r="8">
@@ -8393,19 +8393,19 @@
         <v>64582</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51044</v>
+        <v>51645</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>80448</v>
+        <v>79875</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1539624724249412</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1216894836845376</v>
+        <v>0.1231207342121222</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1917871223396038</v>
+        <v>0.1904223728115954</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>50</v>
@@ -8414,19 +8414,19 @@
         <v>48286</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36431</v>
+        <v>36649</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>61372</v>
+        <v>61660</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1223261264722039</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09229380537841674</v>
+        <v>0.09284509984807804</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1554799595911613</v>
+        <v>0.1562078232614579</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>111</v>
@@ -8435,19 +8435,19 @@
         <v>112867</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>95404</v>
+        <v>93908</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>133865</v>
+        <v>132844</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1386248278931748</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1171760079920881</v>
+        <v>0.1153391370118641</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1644142583590616</v>
+        <v>0.1631608145252028</v>
       </c>
     </row>
     <row r="9">
@@ -8539,19 +8539,19 @@
         <v>33211</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23472</v>
+        <v>23014</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48543</v>
+        <v>47687</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05643767127155337</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03988797799022156</v>
+        <v>0.0391093284954994</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0824914942277325</v>
+        <v>0.08103658319096779</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -8560,19 +8560,19 @@
         <v>38637</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28102</v>
+        <v>28364</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52090</v>
+        <v>52408</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0685614047486586</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04986688113239725</v>
+        <v>0.05033070829757059</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09243282884304739</v>
+        <v>0.09299660044836375</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>68</v>
@@ -8581,19 +8581,19 @@
         <v>71849</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56732</v>
+        <v>54790</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91080</v>
+        <v>88785</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06236844397081717</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04924653046363043</v>
+        <v>0.04756040693634675</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07906259257583319</v>
+        <v>0.07707061784529036</v>
       </c>
     </row>
     <row r="11">
@@ -8610,19 +8610,19 @@
         <v>77339</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>62057</v>
+        <v>62289</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95279</v>
+        <v>95248</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1314273411360429</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1054570314421788</v>
+        <v>0.105850814537326</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1619140583599347</v>
+        <v>0.1618611650752555</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>114</v>
@@ -8631,19 +8631,19 @@
         <v>111053</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>94199</v>
+        <v>94650</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>130224</v>
+        <v>131834</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1970612128112125</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1671540116680718</v>
+        <v>0.1679555484602316</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2310799740127968</v>
+        <v>0.2339367213977622</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>188</v>
@@ -8652,19 +8652,19 @@
         <v>188392</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>163767</v>
+        <v>166351</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>213627</v>
+        <v>215746</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1635345773280268</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1421590425354381</v>
+        <v>0.1444017050363862</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.185439733209692</v>
+        <v>0.1872792839837116</v>
       </c>
     </row>
     <row r="12">
@@ -8681,19 +8681,19 @@
         <v>224079</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>198059</v>
+        <v>199340</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>248220</v>
+        <v>247831</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3807904007100698</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3365737197435984</v>
+        <v>0.338749507665642</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4218143575271123</v>
+        <v>0.4211541510547158</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>235</v>
@@ -8702,19 +8702,19 @@
         <v>224262</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>203306</v>
+        <v>201280</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>247263</v>
+        <v>245577</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3979489191835312</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3607626324022822</v>
+        <v>0.357168624383152</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4387651681031398</v>
+        <v>0.4357720694165098</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>447</v>
@@ -8723,19 +8723,19 @@
         <v>448341</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>415138</v>
+        <v>413712</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>482681</v>
+        <v>478308</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3891841247319968</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3603622586441561</v>
+        <v>0.3591244557951479</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4189936519379348</v>
+        <v>0.4151976301710945</v>
       </c>
     </row>
     <row r="13">
@@ -8752,19 +8752,19 @@
         <v>180990</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>160990</v>
+        <v>158783</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>205069</v>
+        <v>203486</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3075664627469129</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2735794209633762</v>
+        <v>0.2698287980087992</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3484855515530889</v>
+        <v>0.3457962859329519</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>143</v>
@@ -8773,19 +8773,19 @@
         <v>142642</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>122347</v>
+        <v>121693</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>164455</v>
+        <v>164422</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2531153968933319</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2171024883654517</v>
+        <v>0.2159416923865025</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2918228770425914</v>
+        <v>0.2917642240803454</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>322</v>
@@ -8794,19 +8794,19 @@
         <v>323631</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>294290</v>
+        <v>294149</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>353251</v>
+        <v>352563</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2809297096856487</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2554600911954388</v>
+        <v>0.2553373410305244</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3066412798685671</v>
+        <v>0.3060439801683703</v>
       </c>
     </row>
     <row r="14">
@@ -8823,19 +8823,19 @@
         <v>72838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57239</v>
+        <v>57319</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>89939</v>
+        <v>90799</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1237781241354211</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09726956857097184</v>
+        <v>0.09740530138838584</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1528382810269921</v>
+        <v>0.154300605036783</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -8844,19 +8844,19 @@
         <v>46951</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34427</v>
+        <v>34576</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60595</v>
+        <v>61363</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0833130663632658</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06108983562357592</v>
+        <v>0.06135519366643426</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1075257367185771</v>
+        <v>0.1088881784227407</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>119</v>
@@ -8865,19 +8865,19 @@
         <v>119789</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>101691</v>
+        <v>101793</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>141306</v>
+        <v>143178</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1039831442835106</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08827327449001707</v>
+        <v>0.08836191833902976</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1226612828974984</v>
+        <v>0.1242863089818205</v>
       </c>
     </row>
     <row r="15">
@@ -8969,19 +8969,19 @@
         <v>38337</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26638</v>
+        <v>27472</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51002</v>
+        <v>53178</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05757534598733428</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04000629223979488</v>
+        <v>0.04125889026493959</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07659718828391257</v>
+        <v>0.07986415247644997</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -8990,19 +8990,19 @@
         <v>44952</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32355</v>
+        <v>33403</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59492</v>
+        <v>58612</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06818303185995604</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04907538854871815</v>
+        <v>0.05066453278343849</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09023678395477709</v>
+        <v>0.08890190192428508</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -9011,19 +9011,19 @@
         <v>83289</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65861</v>
+        <v>66404</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>102945</v>
+        <v>103858</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06285292819947329</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04970124009646141</v>
+        <v>0.05011089173798291</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07768600267028257</v>
+        <v>0.07837500561483263</v>
       </c>
     </row>
     <row r="17">
@@ -9040,19 +9040,19 @@
         <v>100650</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>83740</v>
+        <v>83291</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>118419</v>
+        <v>119370</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1511602849314314</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1257641477898959</v>
+        <v>0.1250891435268764</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1778459994047477</v>
+        <v>0.1792744558984287</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>125</v>
@@ -9061,19 +9061,19 @@
         <v>122129</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>102239</v>
+        <v>102027</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>141939</v>
+        <v>141209</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1852431119263489</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1550735470601864</v>
+        <v>0.1547529277692575</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2152903624983298</v>
+        <v>0.214182363425345</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>222</v>
@@ -9082,19 +9082,19 @@
         <v>222779</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>197120</v>
+        <v>197701</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>252023</v>
+        <v>251347</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1681173218995076</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1487537765980002</v>
+        <v>0.1491922079649062</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1901852180767202</v>
+        <v>0.1896752564488462</v>
       </c>
     </row>
     <row r="18">
@@ -9111,19 +9111,19 @@
         <v>276576</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>251014</v>
+        <v>250822</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>301691</v>
+        <v>301237</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4153713383041074</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3769820200961874</v>
+        <v>0.3766937416978173</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4530908675100823</v>
+        <v>0.4524079405427701</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>280</v>
@@ -9132,19 +9132,19 @@
         <v>279716</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>253435</v>
+        <v>253357</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>306067</v>
+        <v>301661</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4242680976255055</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3844051615873924</v>
+        <v>0.3842873908691321</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.464236228761271</v>
+        <v>0.4575538912431731</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>545</v>
@@ -9153,19 +9153,19 @@
         <v>556292</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>521931</v>
+        <v>522448</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>592051</v>
+        <v>589855</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.419797692864764</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.393867557790371</v>
+        <v>0.394257474059601</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4467824157974743</v>
+        <v>0.4451256160250455</v>
       </c>
     </row>
     <row r="19">
@@ -9182,19 +9182,19 @@
         <v>180479</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>158585</v>
+        <v>157358</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>204038</v>
+        <v>204025</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2710492418343668</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2381689622536393</v>
+        <v>0.2363263674593145</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3064321751719801</v>
+        <v>0.3064119600484205</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>153</v>
@@ -9203,19 +9203,19 @@
         <v>153491</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>132205</v>
+        <v>133941</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>176109</v>
+        <v>174414</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2328128296052146</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2005254139248907</v>
+        <v>0.2031585602018428</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2671183092074089</v>
+        <v>0.2645472752839531</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>325</v>
@@ -9224,19 +9224,19 @@
         <v>333970</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>303498</v>
+        <v>304183</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>366873</v>
+        <v>367097</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2520256949967461</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2290305935707711</v>
+        <v>0.2295476101630818</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2768550443082408</v>
+        <v>0.2770248105787328</v>
       </c>
     </row>
     <row r="20">
@@ -9253,19 +9253,19 @@
         <v>69810</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>55489</v>
+        <v>54486</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87721</v>
+        <v>86516</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1048437889427602</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08333513513725417</v>
+        <v>0.08182876611762858</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1317419174646605</v>
+        <v>0.1299324386835552</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -9274,19 +9274,19 @@
         <v>59002</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45941</v>
+        <v>45467</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>74216</v>
+        <v>73679</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08949292898297495</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06968279762691744</v>
+        <v>0.06896306344682966</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1125688376089753</v>
+        <v>0.1117555391249807</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>128</v>
@@ -9295,19 +9295,19 @@
         <v>128812</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>108676</v>
+        <v>108900</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>151459</v>
+        <v>150954</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09720636203950896</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08201071008979975</v>
+        <v>0.08218012607764746</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1142961463835441</v>
+        <v>0.1139151675591484</v>
       </c>
     </row>
     <row r="21">
@@ -9399,19 +9399,19 @@
         <v>32808</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21227</v>
+        <v>22238</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46089</v>
+        <v>46062</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05102167378002713</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03301055360216053</v>
+        <v>0.03458343569184713</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07167574803018391</v>
+        <v>0.07163256221625723</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>50</v>
@@ -9420,19 +9420,19 @@
         <v>54211</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40044</v>
+        <v>41296</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69415</v>
+        <v>70523</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08405560364319434</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06208881802007713</v>
+        <v>0.06403019214546281</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.10762946768362</v>
+        <v>0.1093472010471516</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -9441,19 +9441,19 @@
         <v>87020</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70212</v>
+        <v>67781</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>106679</v>
+        <v>106786</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06756327511080661</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0545138308713952</v>
+        <v>0.05262585390080959</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08282728469189191</v>
+        <v>0.08290986410511919</v>
       </c>
     </row>
     <row r="23">
@@ -9470,19 +9470,19 @@
         <v>105524</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>87351</v>
+        <v>87243</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>127043</v>
+        <v>127066</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1641053891743764</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1358441297012941</v>
+        <v>0.1356749209414254</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1975700498807861</v>
+        <v>0.19760605392797</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>131</v>
@@ -9491,19 +9491,19 @@
         <v>140805</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>120165</v>
+        <v>118578</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>164547</v>
+        <v>163551</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.218321000863073</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1863180710680105</v>
+        <v>0.1838573116638655</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2551322238333144</v>
+        <v>0.2535881347387226</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>228</v>
@@ -9512,19 +9512,19 @@
         <v>246330</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>220680</v>
+        <v>218554</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>278627</v>
+        <v>274653</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1912536285202107</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1713388396586689</v>
+        <v>0.169688140759935</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2163299816137105</v>
+        <v>0.2132444506534514</v>
       </c>
     </row>
     <row r="24">
@@ -9541,19 +9541,19 @@
         <v>257990</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>232822</v>
+        <v>233137</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>285797</v>
+        <v>284239</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4012119753818654</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3620720533739148</v>
+        <v>0.3625626787007996</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4444565883196493</v>
+        <v>0.4420326964205532</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>225</v>
@@ -9562,19 +9562,19 @@
         <v>239998</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>216374</v>
+        <v>217891</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>266312</v>
+        <v>263681</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3721207797433951</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3354910202406012</v>
+        <v>0.3378439694683819</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.412920220179003</v>
+        <v>0.4088412139556243</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>457</v>
@@ -9583,19 +9583,19 @@
         <v>497988</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>462812</v>
+        <v>462545</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>537210</v>
+        <v>533806</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3866446816181331</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3593337619725037</v>
+        <v>0.359126329746965</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4170973355619774</v>
+        <v>0.4144545648523438</v>
       </c>
     </row>
     <row r="25">
@@ -9612,19 +9612,19 @@
         <v>166869</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>143101</v>
+        <v>143758</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>191308</v>
+        <v>189776</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2595058938570707</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2225438519628509</v>
+        <v>0.223565331218056</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2975124718043625</v>
+        <v>0.2951302632989179</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>143</v>
@@ -9633,19 +9633,19 @@
         <v>156901</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>135049</v>
+        <v>135441</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>178129</v>
+        <v>180622</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2432774382791729</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2093961025429589</v>
+        <v>0.2100028024210623</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2761912685941224</v>
+        <v>0.280057720961223</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>294</v>
@@ -9654,19 +9654,19 @@
         <v>323770</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>292530</v>
+        <v>292154</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>356154</v>
+        <v>355427</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.25137956303613</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2271243241626731</v>
+        <v>0.2268321235589781</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2765228478486986</v>
+        <v>0.2759581425577877</v>
       </c>
     </row>
     <row r="26">
@@ -9683,19 +9683,19 @@
         <v>79835</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>63163</v>
+        <v>62537</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>98273</v>
+        <v>98570</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1241550678066603</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09822717567458478</v>
+        <v>0.09725473112798927</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1528286555134141</v>
+        <v>0.1532909250463874</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>49</v>
@@ -9704,19 +9704,19 @@
         <v>53031</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>39260</v>
+        <v>40622</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>68784</v>
+        <v>67888</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08222517747116466</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06087376245995828</v>
+        <v>0.06298514928750613</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1066507923209158</v>
+        <v>0.1052614946121912</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>121</v>
@@ -9725,19 +9725,19 @@
         <v>132866</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>110114</v>
+        <v>111055</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>156718</v>
+        <v>156275</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1031588517147196</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08549419770412495</v>
+        <v>0.08622485702513438</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1216783945280496</v>
+        <v>0.1213343271025595</v>
       </c>
     </row>
     <row r="27">
@@ -9829,19 +9829,19 @@
         <v>31609</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20359</v>
+        <v>19963</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>46311</v>
+        <v>44472</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0664429560010731</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04279571986845489</v>
+        <v>0.04196280300712668</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09734827187063247</v>
+        <v>0.09348333683501747</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>46</v>
@@ -9850,19 +9850,19 @@
         <v>51795</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>39011</v>
+        <v>38739</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>67836</v>
+        <v>67422</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1044908384530396</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07869963736733082</v>
+        <v>0.07815237684608087</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1368522221332454</v>
+        <v>0.1360169526340378</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>72</v>
@@ -9871,19 +9871,19 @@
         <v>83404</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>67000</v>
+        <v>67587</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>104609</v>
+        <v>104562</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08585790624177789</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06897136594265903</v>
+        <v>0.06957627197383993</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1076869787332789</v>
+        <v>0.1076388329696508</v>
       </c>
     </row>
     <row r="29">
@@ -9900,19 +9900,19 @@
         <v>99149</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>81533</v>
+        <v>81553</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>118802</v>
+        <v>119192</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2084161944845816</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1713875200296429</v>
+        <v>0.1714285371419874</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2497292401058291</v>
+        <v>0.2505496122373047</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>115</v>
@@ -9921,19 +9921,19 @@
         <v>131774</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>110161</v>
+        <v>110137</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>153625</v>
+        <v>151659</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2658387167722061</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2222375605640825</v>
+        <v>0.2221898827531179</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3099207613825827</v>
+        <v>0.3059562816435022</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>203</v>
@@ -9942,19 +9942,19 @@
         <v>230922</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>202954</v>
+        <v>203245</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>258865</v>
+        <v>257981</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2377175731964571</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.208926734187445</v>
+        <v>0.2092259271287319</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2664825125375885</v>
+        <v>0.2655729819707596</v>
       </c>
     </row>
     <row r="30">
@@ -9971,19 +9971,19 @@
         <v>184823</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>162439</v>
+        <v>161195</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>207848</v>
+        <v>206995</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.388508526879876</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3414567138781347</v>
+        <v>0.338841293447509</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4369087600922734</v>
+        <v>0.4351147874919536</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>161</v>
@@ -9992,19 +9992,19 @@
         <v>184472</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>162691</v>
+        <v>161249</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>208612</v>
+        <v>207685</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3721514965004452</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3282116010883277</v>
+        <v>0.3253024872010593</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4208523753154044</v>
+        <v>0.4189817041094591</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>326</v>
@@ -10013,19 +10013,19 @@
         <v>369295</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>339874</v>
+        <v>339718</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>404183</v>
+        <v>403727</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3801619143895945</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3498756108872442</v>
+        <v>0.3497150913943212</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4160774269216664</v>
+        <v>0.4156071839217312</v>
       </c>
     </row>
     <row r="31">
@@ -10042,19 +10042,19 @@
         <v>108767</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>90158</v>
+        <v>90930</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>129389</v>
+        <v>128734</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2286345572122574</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.189517312986009</v>
+        <v>0.1911412524842541</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2719829309560169</v>
+        <v>0.2706064552700266</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>89</v>
@@ -10063,19 +10063,19 @@
         <v>101290</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>82855</v>
+        <v>82504</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>119429</v>
+        <v>122110</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2043415481469064</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1671500405071916</v>
+        <v>0.1664429896283098</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2409354565178374</v>
+        <v>0.2463426198190181</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>187</v>
@@ -10084,19 +10084,19 @@
         <v>210057</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>184019</v>
+        <v>186016</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>236568</v>
+        <v>238361</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2162383992185448</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1894336995014537</v>
+        <v>0.1914895818589066</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2435300251953444</v>
+        <v>0.2453754832867242</v>
       </c>
     </row>
     <row r="32">
@@ -10113,19 +10113,19 @@
         <v>51377</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>38720</v>
+        <v>37645</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>66919</v>
+        <v>66848</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1079977654222119</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08139084378625062</v>
+        <v>0.07913127943548917</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1406686559662547</v>
+        <v>0.1405181532313093</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>21</v>
@@ -10134,19 +10134,19 @@
         <v>26360</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>16787</v>
+        <v>16704</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>38740</v>
+        <v>38438</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05317740012740273</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03386526062584723</v>
+        <v>0.03369803529390094</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07815369235604298</v>
+        <v>0.0775452960007627</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>66</v>
@@ -10155,19 +10155,19 @@
         <v>77737</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>59464</v>
+        <v>61435</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>96487</v>
+        <v>97908</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08002420695362568</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06121426093527917</v>
+        <v>0.06324299614296376</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09932618273210463</v>
+        <v>0.1007889090520558</v>
       </c>
     </row>
     <row r="33">
@@ -10259,19 +10259,19 @@
         <v>31223</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>21490</v>
+        <v>21902</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>43080</v>
+        <v>44124</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09339110111071443</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06427839043609636</v>
+        <v>0.06550945194313972</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1288555066836039</v>
+        <v>0.1319771381199533</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>44</v>
@@ -10280,19 +10280,19 @@
         <v>45505</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>34627</v>
+        <v>33712</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>59229</v>
+        <v>62807</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1204599646060305</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09166319755977437</v>
+        <v>0.08924256751601969</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.15679026846234</v>
+        <v>0.1662600860553492</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>74</v>
@@ -10301,19 +10301,19 @@
         <v>76729</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>62237</v>
+        <v>59726</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>94544</v>
+        <v>95231</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1077510265957516</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08740054602244697</v>
+        <v>0.08387359874400904</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1327698818152989</v>
+        <v>0.1337345585282704</v>
       </c>
     </row>
     <row r="35">
@@ -10330,19 +10330,19 @@
         <v>59684</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>46493</v>
+        <v>45861</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>75155</v>
+        <v>75434</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1785188639334823</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1390635797089679</v>
+        <v>0.1371727614422714</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.224794131049063</v>
+        <v>0.2256278930904253</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>98</v>
@@ -10351,19 +10351,19 @@
         <v>103900</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>88179</v>
+        <v>87331</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>122232</v>
+        <v>121902</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2750399630357181</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2334250371441813</v>
+        <v>0.231180793598598</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3235696679041969</v>
+        <v>0.3226955043203519</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>159</v>
@@ -10372,19 +10372,19 @@
         <v>163584</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>141272</v>
+        <v>142534</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>187377</v>
+        <v>187739</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2297229268998433</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1983895654048816</v>
+        <v>0.2001618004166894</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2631363471471321</v>
+        <v>0.2636449729557074</v>
       </c>
     </row>
     <row r="36">
@@ -10401,19 +10401,19 @@
         <v>134994</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>116101</v>
+        <v>118853</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>153584</v>
+        <v>156216</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4037747252970236</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3472659768224943</v>
+        <v>0.3554965274168342</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4593788112300421</v>
+        <v>0.4672510207968335</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>136</v>
@@ -10422,19 +10422,19 @@
         <v>144447</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>126494</v>
+        <v>124333</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>163317</v>
+        <v>163499</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3823747043713552</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.334851580067539</v>
+        <v>0.3291294647470223</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4323269866949433</v>
+        <v>0.4328104003282406</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>266</v>
@@ -10443,19 +10443,19 @@
         <v>279441</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>252508</v>
+        <v>251753</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>304796</v>
+        <v>304814</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3924220984708545</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3546007431265112</v>
+        <v>0.3535395414087677</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4280289115936379</v>
+        <v>0.4280536026671246</v>
       </c>
     </row>
     <row r="37">
@@ -10472,19 +10472,19 @@
         <v>78998</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>63295</v>
+        <v>65008</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>96590</v>
+        <v>96494</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2362872461345835</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1893180561776928</v>
+        <v>0.1944430568756234</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2889057298723325</v>
+        <v>0.2886175832778586</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>62</v>
@@ -10493,19 +10493,19 @@
         <v>68678</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>53662</v>
+        <v>55961</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>85622</v>
+        <v>86346</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1818025402028761</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1420511081453551</v>
+        <v>0.1481381497613854</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2266564287827992</v>
+        <v>0.2285725067552314</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>137</v>
@@ -10514,19 +10514,19 @@
         <v>147676</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>126088</v>
+        <v>127636</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>172622</v>
+        <v>172428</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.207383324202698</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1770668486291595</v>
+        <v>0.1792404430796968</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2424154633922368</v>
+        <v>0.2421430138677351</v>
       </c>
     </row>
     <row r="38">
@@ -10543,19 +10543,19 @@
         <v>29430</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>19768</v>
+        <v>20527</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>41033</v>
+        <v>40805</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.08802806352419607</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.05912584044607666</v>
+        <v>0.06139849065259061</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.122733128193866</v>
+        <v>0.1220490947135818</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>14</v>
@@ -10564,19 +10564,19 @@
         <v>15232</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>8326</v>
+        <v>8289</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>24299</v>
+        <v>25108</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.04032282778402013</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02204082151078212</v>
+        <v>0.02194365538014003</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.06432400865604231</v>
+        <v>0.0664643032819833</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>43</v>
@@ -10585,19 +10585,19 @@
         <v>44663</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>31946</v>
+        <v>32626</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>59614</v>
+        <v>59917</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.06272062383085254</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.04486174931002065</v>
+        <v>0.04581653260620093</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.08371629393643083</v>
+        <v>0.08414152713103949</v>
       </c>
     </row>
     <row r="39">
@@ -10689,19 +10689,19 @@
         <v>34854</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>26520</v>
+        <v>26153</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>45940</v>
+        <v>47219</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1360784217410595</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1035395253150852</v>
+        <v>0.1021064884609834</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1793584057725351</v>
+        <v>0.1843531167365282</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>52</v>
@@ -10710,19 +10710,19 @@
         <v>64612</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>49665</v>
+        <v>50542</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>79741</v>
+        <v>82227</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1623282022799069</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1247774833531373</v>
+        <v>0.1269791714476021</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2003378985226414</v>
+        <v>0.2065835567628739</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>92</v>
@@ -10731,19 +10731,19 @@
         <v>99466</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>83335</v>
+        <v>82368</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>119814</v>
+        <v>119452</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1520503135449249</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1273905381058847</v>
+        <v>0.1259127246485836</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1831553722018568</v>
+        <v>0.1826015669279798</v>
       </c>
     </row>
     <row r="41">
@@ -10760,19 +10760,19 @@
         <v>61830</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>49700</v>
+        <v>49422</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>74635</v>
+        <v>74623</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2413988640512557</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1940402643370506</v>
+        <v>0.1929544371895736</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2913904961458952</v>
+        <v>0.2913465369572947</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>89</v>
@@ -10781,19 +10781,19 @@
         <v>119083</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>98232</v>
+        <v>98531</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>142493</v>
+        <v>139940</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2991789307018852</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2467946102554602</v>
+        <v>0.2475461292144558</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3579948738029617</v>
+        <v>0.3515794442633683</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>161</v>
@@ -10802,19 +10802,19 @@
         <v>180913</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>156811</v>
+        <v>156366</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>207350</v>
+        <v>203268</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2765556140895367</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2397115549878145</v>
+        <v>0.2390306181678642</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3169681754141894</v>
+        <v>0.3107281446110754</v>
       </c>
     </row>
     <row r="42">
@@ -10831,19 +10831,19 @@
         <v>90614</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>77409</v>
+        <v>75515</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>104888</v>
+        <v>103721</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3537786760573525</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3022209294846009</v>
+        <v>0.2948254964082021</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4095051662180451</v>
+        <v>0.4049516780223817</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>98</v>
@@ -10852,19 +10852,19 @@
         <v>133421</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>110462</v>
+        <v>111786</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>154657</v>
+        <v>155896</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.335202232934812</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.277519972389761</v>
+        <v>0.28084701041378</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3885550251578743</v>
+        <v>0.39166816352275</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>207</v>
@@ -10873,19 +10873,19 @@
         <v>224036</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>200429</v>
+        <v>196839</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>249469</v>
+        <v>249596</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.34247568862038</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3063890984630439</v>
+        <v>0.300900971188906</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3813538732544642</v>
+        <v>0.3815481941435294</v>
       </c>
     </row>
     <row r="43">
@@ -10902,19 +10902,19 @@
         <v>56506</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>45222</v>
+        <v>45929</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>69419</v>
+        <v>72299</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2206119611236997</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1765549063139667</v>
+        <v>0.1793169329148703</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2710275968937954</v>
+        <v>0.2822698476960674</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>51</v>
@@ -10923,19 +10923,19 @@
         <v>68049</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>50843</v>
+        <v>52932</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>85482</v>
+        <v>84777</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1709633429656259</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1277351831319847</v>
+        <v>0.1329836314329285</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2147610409614346</v>
+        <v>0.2129896375583596</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>117</v>
@@ -10944,19 +10944,19 @@
         <v>124555</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>105944</v>
+        <v>103854</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>147288</v>
+        <v>148036</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1904028568510511</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1619521600393097</v>
+        <v>0.1587582851128987</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2251541049278555</v>
+        <v>0.2262971250272229</v>
       </c>
     </row>
     <row r="44">
@@ -10973,19 +10973,19 @@
         <v>12328</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>6991</v>
+        <v>6759</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>19999</v>
+        <v>20237</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.04813207702663262</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02729479354221625</v>
+        <v>0.02638903422758794</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07808223189211197</v>
+        <v>0.07901122982657799</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>10</v>
@@ -10994,19 +10994,19 @@
         <v>12867</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>6217</v>
+        <v>6460</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>22675</v>
+        <v>23040</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.03232729111776993</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01561817809755866</v>
+        <v>0.01622983366948432</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0569683889864502</v>
+        <v>0.05788413936966562</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>24</v>
@@ -11015,19 +11015,19 @@
         <v>25196</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>16219</v>
+        <v>16891</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>37583</v>
+        <v>36574</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.03851552689410735</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.02479349264010909</v>
+        <v>0.02582000119017968</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.057452300557663</v>
+        <v>0.05590880869711848</v>
       </c>
     </row>
     <row r="45">
@@ -11119,19 +11119,19 @@
         <v>217108</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>189695</v>
+        <v>189405</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>249784</v>
+        <v>246776</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.06417657725149097</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0560733501681472</v>
+        <v>0.05598745272689741</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.07383542068214105</v>
+        <v>0.07294612343074867</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>298</v>
@@ -11140,19 +11140,19 @@
         <v>324104</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>289584</v>
+        <v>290756</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>359527</v>
+        <v>360886</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.09171047219704917</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.08194227793050518</v>
+        <v>0.08227389238126245</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1017339390781253</v>
+        <v>0.1021183244613529</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>498</v>
@@ -11161,19 +11161,19 @@
         <v>541213</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>495120</v>
+        <v>493336</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>586210</v>
+        <v>586630</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.07824408211092942</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07158032256401362</v>
+        <v>0.07132245543490355</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.08474941218722148</v>
+        <v>0.08481013460187042</v>
       </c>
     </row>
     <row r="47">
@@ -11190,19 +11190,19 @@
         <v>553076</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>508281</v>
+        <v>512065</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>593031</v>
+        <v>599206</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1634874556475614</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1502462308747244</v>
+        <v>0.1513648648626965</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1752982485514706</v>
+        <v>0.1771235423006126</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>739</v>
@@ -11211,19 +11211,19 @@
         <v>793479</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>743098</v>
+        <v>743804</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>845306</v>
+        <v>848105</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2245274585901056</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2102713751838783</v>
+        <v>0.2104711410162611</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2391925952978657</v>
+        <v>0.2399846145425105</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1274</v>
@@ -11232,19 +11232,19 @@
         <v>1346555</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1279519</v>
+        <v>1282480</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1411964</v>
+        <v>1416866</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1946737640035792</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.184982242824087</v>
+        <v>0.185410297208376</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2041300759599773</v>
+        <v>0.2048388552075637</v>
       </c>
     </row>
     <row r="48">
@@ -11261,19 +11261,19 @@
         <v>1306412</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1254843</v>
+        <v>1248090</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1361177</v>
+        <v>1365555</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3861714593537147</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3709276014333689</v>
+        <v>0.3689317124006879</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4023598769336169</v>
+        <v>0.4036538512031169</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1267</v>
@@ -11282,19 +11282,19 @@
         <v>1336665</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1273521</v>
+        <v>1275359</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1393640</v>
+        <v>1396273</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3782304774130676</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3603628581321436</v>
+        <v>0.3608830042088639</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.394352435403041</v>
+        <v>0.395097584685147</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2508</v>
@@ -11303,19 +11303,19 @@
         <v>2643077</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>2564148</v>
+        <v>2562198</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>2728950</v>
+        <v>2724174</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.382114285377434</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3707033690610571</v>
+        <v>0.3704214373090783</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3945291087377386</v>
+        <v>0.3938386087816138</v>
       </c>
     </row>
     <row r="49">
@@ -11332,19 +11332,19 @@
         <v>926188</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>871281</v>
+        <v>874475</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>977910</v>
+        <v>982677</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2737783184890297</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2575481262095114</v>
+        <v>0.2584920833968805</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2890673210389109</v>
+        <v>0.2904764525788239</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>771</v>
@@ -11353,19 +11353,19 @@
         <v>818019</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>768679</v>
+        <v>766943</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>871400</v>
+        <v>865403</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2314714332470252</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.217509822444379</v>
+        <v>0.2170186093930016</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2465764563215731</v>
+        <v>0.244879411008525</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1657</v>
@@ -11374,19 +11374,19 @@
         <v>1744207</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1666645</v>
+        <v>1675057</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1817360</v>
+        <v>1825232</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.252163057919961</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.240949747131418</v>
+        <v>0.2421659728445186</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2627389709151201</v>
+        <v>0.2638770007935243</v>
       </c>
     </row>
     <row r="50">
@@ -11403,19 +11403,19 @@
         <v>380201</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>345667</v>
+        <v>344126</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>416177</v>
+        <v>416127</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1123861892582032</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1021782454022562</v>
+        <v>0.1017225615110083</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1230205366893251</v>
+        <v>0.1230057956748094</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>254</v>
@@ -11424,19 +11424,19 @@
         <v>261728</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>234389</v>
+        <v>229647</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>294676</v>
+        <v>294485</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.0740601585527524</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.06632408078914374</v>
+        <v>0.06498217361324525</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.08338327797881301</v>
+        <v>0.08332931344355266</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>612</v>
@@ -11445,19 +11445,19 @@
         <v>641929</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>593409</v>
+        <v>592234</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>691076</v>
+        <v>691442</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.09280481058809635</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.08579018841640859</v>
+        <v>0.08562032112354</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.09991009318434077</v>
+        <v>0.09996296442153808</v>
       </c>
     </row>
     <row r="51">
